--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>522</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>589</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>745</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
-        <v>2.229260330206645</v>
+        <v>2.26595298989872</v>
       </c>
       <c r="E2" t="n">
-        <v>1.501052917977696</v>
+        <v>1.700295270198984</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7282074122289488</v>
+        <v>-0.5656577196997367</v>
       </c>
       <c r="G2" t="n">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="H2" t="n">
-        <v>104.5465628575214</v>
+        <v>47.40421494287187</v>
       </c>
       <c r="I2" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>346.4132347804633</v>
+        <v>112.0514685202622</v>
       </c>
       <c r="L2" t="n">
-        <v>6.110575987908589</v>
+        <v>4.378294170502101</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6220497451301338</v>
+        <v>0.691293837900918</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4294871794871795</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2090149986834302</v>
+        <v>0.1196350093214146</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5521117725172799</v>
+        <v>0.8096561374719169</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>605</v>
+        <v>1293</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="B3" t="n">
-        <v>446</v>
+        <v>118</v>
       </c>
       <c r="C3" t="n">
-        <v>576</v>
+        <v>206</v>
       </c>
       <c r="D3" t="n">
-        <v>2.46836831135378</v>
+        <v>1.964419324514858</v>
       </c>
       <c r="E3" t="n">
-        <v>1.614832720266182</v>
+        <v>1.398761604815122</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8535355910875978</v>
+        <v>-0.5656577196997367</v>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="H3" t="n">
-        <v>102.5113857335254</v>
+        <v>29.94257637812635</v>
       </c>
       <c r="I3" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="K3" t="n">
-        <v>287.279223363148</v>
+        <v>90.46858395998736</v>
       </c>
       <c r="L3" t="n">
-        <v>7.524607712984797</v>
+        <v>3.795668186977482</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7631651636249029</v>
+        <v>0.8912846540163255</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.3295454545454545</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3182218782082329</v>
+        <v>0.3628246600803324</v>
       </c>
       <c r="S3" t="n">
-        <v>0.910048889892628</v>
+        <v>0.9094869222972821</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>606</v>
+        <v>1294</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="B4" t="n">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="C4" t="n">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="D4" t="n">
-        <v>2.613242746036091</v>
+        <v>2.242717375998254</v>
       </c>
       <c r="E4" t="n">
-        <v>1.759707154948493</v>
+        <v>1.491917657229527</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8535355910875978</v>
+        <v>-0.7507997187687266</v>
       </c>
       <c r="G4" t="n">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H4" t="n">
-        <v>34.37214961355323</v>
+        <v>106.3710412717445</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" t="n">
-        <v>219.7141854790343</v>
+        <v>220.8695446640798</v>
       </c>
       <c r="L4" t="n">
-        <v>7.966244920694269</v>
+        <v>6.151165842756297</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.733087389892368</v>
+        <v>0.5755762692999591</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4931506849315068</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4814233517600657</v>
+        <v>0.1957659912028115</v>
       </c>
       <c r="S4" t="n">
-        <v>0.375296995024326</v>
+        <v>0.9334294763567957</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>607</v>
+        <v>1295</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="B5" t="n">
-        <v>716</v>
+        <v>671</v>
       </c>
       <c r="C5" t="n">
-        <v>858</v>
+        <v>747</v>
       </c>
       <c r="D5" t="n">
-        <v>2.926953671783312</v>
+        <v>1.738867945956176</v>
       </c>
       <c r="E5" t="n">
-        <v>2.073418080695714</v>
+        <v>0.9880682271874494</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8535355910875978</v>
+        <v>-0.7507997187687266</v>
       </c>
       <c r="G5" t="n">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>169.9586635704667</v>
+        <v>52.40914905999648</v>
       </c>
       <c r="I5" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K5" t="n">
-        <v>236.4864328867152</v>
+        <v>131.9701527664775</v>
       </c>
       <c r="L5" t="n">
-        <v>8.922565596448891</v>
+        <v>4.76924343151732</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8796149781355385</v>
+        <v>0.8247545805068468</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2183098591549296</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5040313951863262</v>
+        <v>0.1426161655022343</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9235342917372851</v>
+        <v>0.783934477317866</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>608</v>
+        <v>1296</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>971</v>
+        <v>311</v>
       </c>
       <c r="B6" t="n">
-        <v>1005</v>
+        <v>342</v>
       </c>
       <c r="C6" t="n">
-        <v>1183</v>
+        <v>432</v>
       </c>
       <c r="D6" t="n">
-        <v>1.923813710913133</v>
+        <v>2.650527047732333</v>
       </c>
       <c r="E6" t="n">
-        <v>1.070278119825535</v>
+        <v>1.894508658870622</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8535355910875978</v>
+        <v>-0.7560183888617108</v>
       </c>
       <c r="G6" t="n">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="H6" t="n">
-        <v>97.4389422275425</v>
+        <v>42.88205460407437</v>
       </c>
       <c r="I6" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" t="n">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>197.6445928887232</v>
+        <v>169.958942967051</v>
       </c>
       <c r="L6" t="n">
-        <v>5.864580022720967</v>
+        <v>11.84621733278649</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8914394012649648</v>
+        <v>0.9512941836791922</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1910112359550562</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3806540189964484</v>
+        <v>0.2487074867888292</v>
       </c>
       <c r="S6" t="n">
-        <v>0.826997681302123</v>
+        <v>0.9945192627444995</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>609</v>
+        <v>1297</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>610</v>
+        <v>432</v>
       </c>
       <c r="B7" t="n">
-        <v>661</v>
+        <v>512</v>
       </c>
       <c r="C7" t="n">
-        <v>726</v>
+        <v>642</v>
       </c>
       <c r="D7" t="n">
-        <v>2.74661829997429</v>
+        <v>3.504643445866315</v>
       </c>
       <c r="E7" t="n">
-        <v>1.826841380563638</v>
+        <v>2.748625057004604</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9197769194106519</v>
+        <v>-0.7560183888617108</v>
       </c>
       <c r="G7" t="n">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="H7" t="n">
-        <v>44.43473026522838</v>
+        <v>235.6419214772311</v>
       </c>
       <c r="I7" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>190.5446270484981</v>
+        <v>435.7016386303306</v>
       </c>
       <c r="L7" t="n">
-        <v>6.34767727215535</v>
+        <v>15.66358961293299</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8198033359760051</v>
+        <v>0.6600027786569658</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7846153846153846</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2950126267615408</v>
+        <v>0.7194833912485089</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9928582734387543</v>
+        <v>0.918250139696731</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>610</v>
+        <v>1298</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1066</v>
+        <v>376</v>
       </c>
       <c r="B8" t="n">
-        <v>1094</v>
+        <v>443</v>
       </c>
       <c r="C8" t="n">
-        <v>1183</v>
+        <v>577</v>
       </c>
       <c r="D8" t="n">
-        <v>3.102415696740132</v>
+        <v>2.460952574170151</v>
       </c>
       <c r="E8" t="n">
-        <v>2.628297221351795</v>
+        <v>1.606467008813521</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4741184753883362</v>
+        <v>-0.8544855653566304</v>
       </c>
       <c r="G8" t="n">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="H8" t="n">
-        <v>25.79551202811672</v>
+        <v>101.8546462990947</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J8" t="n">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="K8" t="n">
-        <v>238.8440572255622</v>
+        <v>288.3479413339646</v>
       </c>
       <c r="L8" t="n">
-        <v>13.25925380754734</v>
+        <v>7.484992199676063</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8652496596948058</v>
+        <v>0.7219148430475049</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3146067415730337</v>
+        <v>0.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3206936630718087</v>
+        <v>0.308301787441347</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8390292577326027</v>
+        <v>0.9015531665066646</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>611</v>
+        <v>1299</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1000</v>
+        <v>577</v>
       </c>
       <c r="B9" t="n">
-        <v>1038</v>
+        <v>611</v>
       </c>
       <c r="C9" t="n">
-        <v>1183</v>
+        <v>687</v>
       </c>
       <c r="D9" t="n">
-        <v>4.800183536491925</v>
+        <v>2.643167360400665</v>
       </c>
       <c r="E9" t="n">
-        <v>4.364691515875229</v>
+        <v>1.788681795044035</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4354920206166956</v>
+        <v>-0.8544855653566304</v>
       </c>
       <c r="G9" t="n">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="H9" t="n">
-        <v>66.49712691729815</v>
+        <v>31.72138361699922</v>
       </c>
       <c r="I9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="K9" t="n">
-        <v>374.0623054767259</v>
+        <v>222.7376891335766</v>
       </c>
       <c r="L9" t="n">
-        <v>27.43912687775769</v>
+        <v>8.039198838160734</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9674927543695334</v>
+        <v>0.7395087983948742</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2620689655172414</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3278096861211874</v>
+        <v>0.4810124186425799</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9403182872497281</v>
+        <v>0.3859994018833998</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>612</v>
+        <v>1300</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>485</v>
+        <v>687</v>
       </c>
       <c r="B10" t="n">
-        <v>517</v>
+        <v>714</v>
       </c>
       <c r="C10" t="n">
-        <v>592</v>
+        <v>859</v>
       </c>
       <c r="D10" t="n">
-        <v>3.690993165081192</v>
+        <v>2.989490444458002</v>
       </c>
       <c r="E10" t="n">
-        <v>3.116350479696802</v>
+        <v>2.135004879101372</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.57464268538439</v>
+        <v>-0.8544855653566304</v>
       </c>
       <c r="G10" t="n">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="H10" t="n">
-        <v>142.6255822079951</v>
+        <v>170.4709981759846</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="K10" t="n">
-        <v>245.5093720685026</v>
+        <v>233.2027968786188</v>
       </c>
       <c r="L10" t="n">
-        <v>20.90925957109939</v>
+        <v>9.09254119426487</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8369693158116007</v>
+        <v>0.8626034240192326</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.1862068965517241</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2083015889391042</v>
+        <v>0.4968274736702403</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9874227249405076</v>
+        <v>0.9173634878499024</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>613</v>
+        <v>1301</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>660</v>
       </c>
       <c r="C11" t="n">
-        <v>301</v>
+        <v>728</v>
       </c>
       <c r="D11" t="n">
-        <v>4.606469244471207</v>
+        <v>2.753229202372066</v>
       </c>
       <c r="E11" t="n">
-        <v>4.09559505447303</v>
+        <v>1.841355678452043</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5108741899981776</v>
+        <v>-0.911873523920023</v>
       </c>
       <c r="G11" t="n">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95424467350679</v>
+        <v>44.71682435646517</v>
       </c>
       <c r="I11" t="n">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="J11" t="n">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="K11" t="n">
-        <v>466.1202169580384</v>
+        <v>191.9367088646413</v>
       </c>
       <c r="L11" t="n">
-        <v>18.25671353564362</v>
+        <v>6.358039320631725</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.6660384547737004</v>
+        <v>0.8392808782344457</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4265402843601896</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2378221214830569</v>
+        <v>0.2407860757699729</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9089775970454461</v>
+        <v>0.9912449525335477</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>614</v>
+        <v>1302</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>769</v>
+        <v>222</v>
       </c>
       <c r="B12" t="n">
-        <v>816</v>
+        <v>249</v>
       </c>
       <c r="C12" t="n">
-        <v>951</v>
+        <v>333</v>
       </c>
       <c r="D12" t="n">
-        <v>2.702702942909244</v>
+        <v>0.6516488751780715</v>
       </c>
       <c r="E12" t="n">
-        <v>2.062586797677368</v>
+        <v>0.04621381569003709</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6401161452318759</v>
+        <v>-0.6054350594880343</v>
       </c>
       <c r="G12" t="n">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="H12" t="n">
-        <v>46.71421403992269</v>
+        <v>27.81623910738077</v>
       </c>
       <c r="I12" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1088322895139</v>
+        <v>28.45927847311988</v>
       </c>
       <c r="L12" t="n">
-        <v>8.873936896285691</v>
+        <v>3.425172850257371</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8723176334089187</v>
+        <v>0.7815076786589363</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3481481481481482</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3516703819582027</v>
+        <v>0.5086047250317712</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8636059798174995</v>
+        <v>0.4041284624776722</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>615</v>
+        <v>1303</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="B13" t="n">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="C13" t="n">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="D13" t="n">
-        <v>3.103101627403891</v>
+        <v>3.411091254707026</v>
       </c>
       <c r="E13" t="n">
-        <v>2.500469677132418</v>
+        <v>2.805656195218992</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6026319502714724</v>
+        <v>-0.6054350594880343</v>
       </c>
       <c r="G13" t="n">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="H13" t="n">
-        <v>66.02440720697979</v>
+        <v>98.075844126768</v>
       </c>
       <c r="I13" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J13" t="n">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="K13" t="n">
-        <v>245.7204664374263</v>
+        <v>346.3788198323414</v>
       </c>
       <c r="L13" t="n">
-        <v>13.83258380657305</v>
+        <v>17.92925239405986</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9451919512847871</v>
+        <v>0.9513695928882699</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.25</v>
+        <v>0.3257142857142857</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2720012776033772</v>
+        <v>0.4205973358958968</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8950450705757763</v>
+        <v>0.9555275802949157</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>616</v>
+        <v>1304</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>48</v>
+        <v>1033</v>
       </c>
       <c r="B14" t="n">
-        <v>89</v>
+        <v>1064</v>
       </c>
       <c r="C14" t="n">
-        <v>177</v>
+        <v>1107</v>
       </c>
       <c r="D14" t="n">
-        <v>2.797050997074364</v>
+        <v>3.034985892418678</v>
       </c>
       <c r="E14" t="n">
-        <v>2.243498959770251</v>
+        <v>2.349651776073446</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5535520373041131</v>
+        <v>-0.685334116345232</v>
       </c>
       <c r="G14" t="n">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="H14" t="n">
-        <v>43.21402672787876</v>
+        <v>36.71862835607499</v>
       </c>
       <c r="I14" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="K14" t="n">
-        <v>144.017783363967</v>
+        <v>174.0889697703638</v>
       </c>
       <c r="L14" t="n">
-        <v>6.839433040687908</v>
+        <v>9.863080903586834</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8775214445711845</v>
+        <v>0.7422573436822557</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4659090909090909</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2929344469200305</v>
+        <v>0.7755525023726026</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9419931979694683</v>
+        <v>0.7240309532218303</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>617</v>
+        <v>1305</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1066</v>
+        <v>1107</v>
       </c>
       <c r="B15" t="n">
-        <v>1103</v>
+        <v>1129</v>
       </c>
       <c r="C15" t="n">
         <v>1183</v>
       </c>
       <c r="D15" t="n">
-        <v>2.888913730971356</v>
+        <v>3.461280463478277</v>
       </c>
       <c r="E15" t="n">
-        <v>2.174496429906341</v>
+        <v>2.775946347133045</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7144173010650148</v>
+        <v>-0.685334116345232</v>
       </c>
       <c r="G15" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="H15" t="n">
-        <v>37.49624393946056</v>
+        <v>22.65544348735557</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K15" t="n">
-        <v>252.2648731056597</v>
+        <v>218.3121720343674</v>
       </c>
       <c r="L15" t="n">
-        <v>9.875553125740918</v>
+        <v>11.24845071819573</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8226840378332501</v>
+        <v>0.6180582297581809</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4625</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1540050644810897</v>
+        <v>0.08256704927987811</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9912878541000792</v>
+        <v>0.3038101177999362</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>618</v>
+        <v>1306</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>124</v>
+        <v>1000</v>
       </c>
       <c r="B16" t="n">
-        <v>154</v>
+        <v>1029</v>
       </c>
       <c r="C16" t="n">
-        <v>339</v>
+        <v>1067</v>
       </c>
       <c r="D16" t="n">
-        <v>3.348654982956774</v>
+        <v>4.64090110250748</v>
       </c>
       <c r="E16" t="n">
-        <v>2.64929703376477</v>
+        <v>4.157148910044429</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6993579491920039</v>
+        <v>-0.4837521924630519</v>
       </c>
       <c r="G16" t="n">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="H16" t="n">
-        <v>54.2967597908758</v>
+        <v>41.69529217893944</v>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="n">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="K16" t="n">
-        <v>224.079083204239</v>
+        <v>199.5993643702814</v>
       </c>
       <c r="L16" t="n">
-        <v>13.2139570849036</v>
+        <v>19.23696153446585</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8236712616532024</v>
+        <v>0.7724763784478997</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="R16" t="n">
-        <v>0.522888152725721</v>
+        <v>0.3696059564031588</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7572342337851932</v>
+        <v>0.9855455656849027</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>619</v>
+        <v>1307</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>643</v>
+        <v>1067</v>
       </c>
       <c r="B17" t="n">
-        <v>670</v>
+        <v>1093</v>
       </c>
       <c r="C17" t="n">
-        <v>743</v>
+        <v>1183</v>
       </c>
       <c r="D17" t="n">
-        <v>1.399147726257062</v>
+        <v>3.194714100983264</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6997897770650584</v>
+        <v>2.710961908520212</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6993579491920039</v>
+        <v>-0.4837521924630519</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H17" t="n">
-        <v>39.10411594272409</v>
+        <v>23.72035563866302</v>
       </c>
       <c r="I17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K17" t="n">
-        <v>76.07485834190319</v>
+        <v>237.3442899261646</v>
       </c>
       <c r="L17" t="n">
-        <v>5.521105669081684</v>
+        <v>13.242383519232</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.944816588678359</v>
+        <v>0.8689857645022219</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3698630136986301</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2720659818051077</v>
+        <v>0.3171724268670437</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9710203703683974</v>
+        <v>0.829804330183355</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>620</v>
+        <v>1308</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>743</v>
+        <v>203</v>
       </c>
       <c r="B18" t="n">
-        <v>773</v>
+        <v>234</v>
       </c>
       <c r="C18" t="n">
-        <v>815</v>
+        <v>285</v>
       </c>
       <c r="D18" t="n">
-        <v>1.796599623136758</v>
+        <v>1.063779476951557</v>
       </c>
       <c r="E18" t="n">
-        <v>1.097241673944754</v>
+        <v>0.6271357791829975</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6993579491920039</v>
+        <v>-0.4366436977685597</v>
       </c>
       <c r="G18" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H18" t="n">
-        <v>25.06872593430592</v>
+        <v>35.08894814078167</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K18" t="n">
-        <v>82.62282605282445</v>
+        <v>42.60216914445653</v>
       </c>
       <c r="L18" t="n">
-        <v>7.089470381305496</v>
+        <v>6.091435971334963</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7670726886767886</v>
+        <v>0.8292957540719268</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1812802928473634</v>
+        <v>0.2575878583450509</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9151576064160268</v>
+        <v>0.9089777959908636</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>621</v>
+        <v>1309</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>1038</v>
       </c>
       <c r="C19" t="n">
-        <v>92</v>
+        <v>1183</v>
       </c>
       <c r="D19" t="n">
-        <v>4.056884570366416</v>
+        <v>4.756898741024241</v>
       </c>
       <c r="E19" t="n">
-        <v>3.411221092963551</v>
+        <v>4.320255043255681</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6456634774028659</v>
+        <v>-0.4366436977685597</v>
       </c>
       <c r="G19" t="n">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="H19" t="n">
-        <v>32.53553859744284</v>
+        <v>67.44795981391621</v>
       </c>
       <c r="I19" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="K19" t="n">
-        <v>223.9724687437993</v>
+        <v>373.8490385075791</v>
       </c>
       <c r="L19" t="n">
-        <v>12.1231105539646</v>
+        <v>27.23905163700822</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9165131868356864</v>
+        <v>0.9664369130960501</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2551724137931035</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3572675769046227</v>
+        <v>0.3459078331000986</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8492011625882192</v>
+        <v>0.9374571735207576</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>622</v>
+        <v>1310</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>442</v>
       </c>
       <c r="C20" t="n">
-        <v>114</v>
+        <v>487</v>
       </c>
       <c r="D20" t="n">
-        <v>1.179991751740292</v>
+        <v>3.087139249107747</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6611394707319127</v>
+        <v>2.505064809483654</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5188522810083791</v>
+        <v>-0.582074439624092</v>
       </c>
       <c r="G20" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H20" t="n">
-        <v>24.53573324206955</v>
+        <v>44.43432596866842</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="K20" t="n">
-        <v>66.33950404385419</v>
+        <v>173.7201423687068</v>
       </c>
       <c r="L20" t="n">
-        <v>5.887051856551712</v>
+        <v>17.39936033432217</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8170487450868247</v>
+        <v>0.755596571471045</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4870533025898981</v>
+        <v>0.4830871327041658</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8353127861043161</v>
+        <v>0.8862365292787896</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>623</v>
+        <v>1311</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>823</v>
+        <v>487</v>
       </c>
       <c r="B21" t="n">
-        <v>871</v>
+        <v>516</v>
       </c>
       <c r="C21" t="n">
-        <v>936</v>
+        <v>594</v>
       </c>
       <c r="D21" t="n">
-        <v>3.52409415635361</v>
+        <v>3.780654744400369</v>
       </c>
       <c r="E21" t="n">
-        <v>2.851189411162254</v>
+        <v>3.198580304776277</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6729047451913561</v>
+        <v>-0.582074439624092</v>
       </c>
       <c r="G21" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H21" t="n">
-        <v>144.11938945322</v>
+        <v>74.15338437598581</v>
       </c>
       <c r="I21" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K21" t="n">
-        <v>307.2212268942544</v>
+        <v>244.4220131179704</v>
       </c>
       <c r="L21" t="n">
-        <v>25.83508489031157</v>
+        <v>21.3080683731707</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7062292747624549</v>
+        <v>0.8895875959626836</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1761147338854098</v>
+        <v>0.2160108987867842</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9625498622976765</v>
+        <v>0.9876455898178262</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>624</v>
+        <v>1312</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>467</v>
+        <v>1072</v>
       </c>
       <c r="B22" t="n">
-        <v>496</v>
+        <v>1093</v>
       </c>
       <c r="C22" t="n">
-        <v>547</v>
+        <v>1131</v>
       </c>
       <c r="D22" t="n">
-        <v>2.783923777874191</v>
+        <v>0.8200042879922257</v>
       </c>
       <c r="E22" t="n">
-        <v>2.163858109720005</v>
+        <v>0.2379298483681337</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6200656681541854</v>
+        <v>-0.582074439624092</v>
       </c>
       <c r="G22" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H22" t="n">
-        <v>193.6684725493258</v>
+        <v>30.98744424197366</v>
       </c>
       <c r="I22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J22" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K22" t="n">
-        <v>153.4267427534051</v>
+        <v>26.71943460065531</v>
       </c>
       <c r="L22" t="n">
-        <v>8.78869384401326</v>
+        <v>4.621608852464195</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.717317872450809</v>
+        <v>0.7573192515497289</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1493920464251581</v>
+        <v>0.1750765777766658</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9579423777551811</v>
+        <v>0.791150143646523</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>625</v>
+        <v>1313</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>958</v>
+        <v>89</v>
       </c>
       <c r="C23" t="n">
-        <v>1183</v>
+        <v>313</v>
       </c>
       <c r="D23" t="n">
-        <v>2.635892081018385</v>
+        <v>4.645161379599599</v>
       </c>
       <c r="E23" t="n">
-        <v>2.090664716715763</v>
+        <v>4.129715281752072</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5452273643026219</v>
+        <v>-0.5154460978475267</v>
       </c>
       <c r="G23" t="n">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="H23" t="n">
-        <v>92.4931104863897</v>
+        <v>70.48954072051423</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="J23" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K23" t="n">
-        <v>256.5117760273054</v>
+        <v>470.9540178733313</v>
       </c>
       <c r="L23" t="n">
-        <v>10.37861439129803</v>
+        <v>18.37000783507643</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7038961171667819</v>
+        <v>0.6738592230561681</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1644444444444444</v>
+        <v>0.3973214285714285</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4300642499010204</v>
+        <v>0.2492100286329897</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3157396778594763</v>
+        <v>0.9119206985099348</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>626</v>
+        <v>1314</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>220</v>
+        <v>770</v>
       </c>
       <c r="B24" t="n">
-        <v>232</v>
+        <v>817</v>
       </c>
       <c r="C24" t="n">
-        <v>286</v>
+        <v>952</v>
       </c>
       <c r="D24" t="n">
-        <v>1.884643913061357</v>
+        <v>2.846372298797783</v>
       </c>
       <c r="E24" t="n">
-        <v>1.392069678688743</v>
+        <v>2.190986615854847</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4925742343726141</v>
+        <v>-0.6553856829429358</v>
       </c>
       <c r="G24" t="n">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="H24" t="n">
-        <v>12.62261067733436</v>
+        <v>52.137443962833</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J24" t="n">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="K24" t="n">
-        <v>78.42151390488578</v>
+        <v>227.6007648824157</v>
       </c>
       <c r="L24" t="n">
-        <v>17.88496162029003</v>
+        <v>9.32957077675538</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8712376660712203</v>
+        <v>0.8839318122310577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3481481481481482</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3797359032728954</v>
+        <v>0.3656022900435984</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9857710179010855</v>
+        <v>0.8469696761969003</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>627</v>
+        <v>1315</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>843</v>
+        <v>491</v>
       </c>
       <c r="B25" t="n">
-        <v>882</v>
+        <v>519</v>
       </c>
       <c r="C25" t="n">
-        <v>933</v>
+        <v>644</v>
       </c>
       <c r="D25" t="n">
-        <v>2.590650509252558</v>
+        <v>3.238647556274666</v>
       </c>
       <c r="E25" t="n">
-        <v>1.832523261700054</v>
+        <v>2.62980075379881</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.7581272475525033</v>
+        <v>-0.6088468024758561</v>
       </c>
       <c r="G25" t="n">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.88410994747017</v>
+        <v>64.18398297624418</v>
       </c>
       <c r="I25" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J25" t="n">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K25" t="n">
-        <v>178.983788582792</v>
+        <v>246.8847786695012</v>
       </c>
       <c r="L25" t="n">
-        <v>8.250134227185407</v>
+        <v>14.47290714283264</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.6272674863307237</v>
+        <v>0.928642273730668</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.224</v>
       </c>
       <c r="R25" t="n">
-        <v>0.07738093715024887</v>
+        <v>0.2844718575682763</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9047620570412583</v>
+        <v>0.8710526333284878</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>628</v>
+        <v>1316</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1054</v>
+        <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>1072</v>
+        <v>88</v>
       </c>
       <c r="C26" t="n">
-        <v>1183</v>
+        <v>178</v>
       </c>
       <c r="D26" t="n">
-        <v>1.633422129775328</v>
+        <v>2.900026691971878</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8752948822228247</v>
+        <v>2.357398142860808</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7581272475525033</v>
+        <v>-0.5426285491110702</v>
       </c>
       <c r="G26" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H26" t="n">
-        <v>30.87966782645299</v>
+        <v>39.25153836647151</v>
       </c>
       <c r="I26" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J26" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="K26" t="n">
-        <v>145.4678678998089</v>
+        <v>143.0068059305031</v>
       </c>
       <c r="L26" t="n">
-        <v>5.201763716167773</v>
+        <v>7.038368857203849</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.7238255165773677</v>
+        <v>0.8600185437684776</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2042601744902357</v>
+        <v>0.2656056673612935</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3993213096283426</v>
+        <v>0.8974245365950068</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>629</v>
+        <v>1317</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>747</v>
+        <v>822</v>
       </c>
       <c r="B27" t="n">
-        <v>767</v>
+        <v>841</v>
       </c>
       <c r="C27" t="n">
-        <v>812</v>
+        <v>896</v>
       </c>
       <c r="D27" t="n">
-        <v>2.776676830058943</v>
+        <v>1.737427626182903</v>
       </c>
       <c r="E27" t="n">
-        <v>2.173199728984544</v>
+        <v>1.194799077071833</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6034771010743993</v>
+        <v>-0.5426285491110702</v>
       </c>
       <c r="G27" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H27" t="n">
-        <v>17.2759728742609</v>
+        <v>35.14389943352353</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K27" t="n">
-        <v>116.890126728893</v>
+        <v>68.36295548839321</v>
       </c>
       <c r="L27" t="n">
-        <v>10.66603762811235</v>
+        <v>4.216739290580963</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8541654511076566</v>
+        <v>0.9120164539598318</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3844991128151144</v>
+        <v>0.1993057306069308</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9542971419071882</v>
+        <v>0.9711667471638237</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>630</v>
+        <v>1318</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,85 +2793,2407 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1049</v>
+        <v>1065</v>
       </c>
       <c r="B28" t="n">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="C28" t="n">
         <v>1183</v>
       </c>
       <c r="D28" t="n">
-        <v>3.200779844090106</v>
+        <v>2.897245851444884</v>
       </c>
       <c r="E28" t="n">
-        <v>2.558067324034672</v>
+        <v>2.1827379378289</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6427125200554333</v>
+        <v>-0.7145079136159846</v>
       </c>
       <c r="G28" t="n">
+        <v>118</v>
+      </c>
+      <c r="H28" t="n">
+        <v>35.21512276977091</v>
+      </c>
+      <c r="I28" t="n">
+        <v>36</v>
+      </c>
+      <c r="J28" t="n">
+        <v>82</v>
+      </c>
+      <c r="K28" t="n">
+        <v>254.1724644315449</v>
+      </c>
+      <c r="L28" t="n">
+        <v>9.91601762840674</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8030561176196048</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.4390243902439024</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.1343918719134655</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.9902384119160167</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>1319</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>659</v>
+      </c>
+      <c r="B29" t="n">
+        <v>691</v>
+      </c>
+      <c r="C29" t="n">
+        <v>761</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.961776384943015</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.188752315861302</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.773024069081713</v>
+      </c>
+      <c r="G29" t="n">
+        <v>102</v>
+      </c>
+      <c r="H29" t="n">
+        <v>46.2973367390191</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
+      <c r="J29" t="n">
+        <v>70</v>
+      </c>
+      <c r="K29" t="n">
+        <v>171.3693571622646</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.393134591475504</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0.7041750143835969</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.09479699144462725</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.6587467785844989</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>1320</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>853</v>
+      </c>
+      <c r="B30" t="n">
+        <v>883</v>
+      </c>
+      <c r="C30" t="n">
+        <v>938</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.413801038453355</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.640776969371642</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.773024069081713</v>
+      </c>
+      <c r="G30" t="n">
+        <v>85</v>
+      </c>
+      <c r="H30" t="n">
+        <v>60.92039946090028</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" t="n">
+        <v>55</v>
+      </c>
+      <c r="K30" t="n">
+        <v>174.8173353957146</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.866215045872263</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.5449532197492807</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.07225545727701436</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.7458942332329502</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1321</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>126</v>
+      </c>
+      <c r="B31" t="n">
+        <v>152</v>
+      </c>
+      <c r="C31" t="n">
+        <v>342</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.397091119930409</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.703545966873405</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.6935451530570038</v>
+      </c>
+      <c r="G31" t="n">
+        <v>216</v>
+      </c>
+      <c r="H31" t="n">
+        <v>52.11540220368829</v>
+      </c>
+      <c r="I31" t="n">
+        <v>26</v>
+      </c>
+      <c r="J31" t="n">
+        <v>190</v>
+      </c>
+      <c r="K31" t="n">
+        <v>223.3014928087421</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13.32851986460499</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8088764661087577</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.5196701973071175</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.7660789828507162</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1322</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>644</v>
+      </c>
+      <c r="B32" t="n">
+        <v>668</v>
+      </c>
+      <c r="C32" t="n">
+        <v>744</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.423339445220996</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7297942921639918</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.6935451530570038</v>
+      </c>
+      <c r="G32" t="n">
+        <v>100</v>
+      </c>
+      <c r="H32" t="n">
+        <v>38.30523905879079</v>
+      </c>
+      <c r="I32" t="n">
+        <v>24</v>
+      </c>
+      <c r="J32" t="n">
+        <v>76</v>
+      </c>
+      <c r="K32" t="n">
+        <v>76.47433162024792</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.584486079399752</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.9686597367757815</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.2768937857795635</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.9485868833485844</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>1323</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>744</v>
+      </c>
+      <c r="B33" t="n">
+        <v>773</v>
+      </c>
+      <c r="C33" t="n">
+        <v>817</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.902376006229024</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.20883085317202</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.6935451530570038</v>
+      </c>
+      <c r="G33" t="n">
+        <v>73</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23.00507242748165</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29</v>
+      </c>
+      <c r="J33" t="n">
+        <v>44</v>
+      </c>
+      <c r="K33" t="n">
+        <v>83.75346000938062</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.463990659600229</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7774297531378341</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.6590909090909091</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2476172297777272</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8119997199087456</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>1324</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>93</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.067057208969925</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.406971438686922</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.6600857702830024</v>
+      </c>
+      <c r="G34" t="n">
+        <v>93</v>
+      </c>
+      <c r="H34" t="n">
+        <v>30.61372488131542</v>
+      </c>
+      <c r="I34" t="n">
+        <v>16</v>
+      </c>
+      <c r="J34" t="n">
+        <v>77</v>
+      </c>
+      <c r="K34" t="n">
+        <v>225.1746902592042</v>
+      </c>
+      <c r="L34" t="n">
+        <v>12.26993179461581</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.9014718378731991</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.36286909623953</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.8394750582718776</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1325</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.875680824855221</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.215595054572219</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.6600857702830024</v>
+      </c>
+      <c r="G35" t="n">
+        <v>56</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22.31514715395451</v>
+      </c>
+      <c r="I35" t="n">
+        <v>24</v>
+      </c>
+      <c r="J35" t="n">
+        <v>32</v>
+      </c>
+      <c r="K35" t="n">
+        <v>70.737679233376</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.658753886885017</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7417636630571163</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1935241049330644</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7373085149001233</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1326</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+      <c r="C36" t="n">
+        <v>112</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.182888210113729</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6546457398649846</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5282424702487442</v>
+      </c>
+      <c r="G36" t="n">
+        <v>112</v>
+      </c>
+      <c r="H36" t="n">
+        <v>24.20120200317738</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>97</v>
+      </c>
+      <c r="K36" t="n">
+        <v>66.95471903209486</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.802534105282581</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8121651611076791</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.154639175257732</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4749298155334483</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.8049805341038819</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1327</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>220</v>
+      </c>
+      <c r="B37" t="n">
+        <v>254</v>
+      </c>
+      <c r="C37" t="n">
+        <v>336</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.086311992721229</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.558069522472485</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5282424702487442</v>
+      </c>
+      <c r="G37" t="n">
+        <v>116</v>
+      </c>
+      <c r="H37" t="n">
+        <v>52.36888577113464</v>
+      </c>
+      <c r="I37" t="n">
+        <v>34</v>
+      </c>
+      <c r="J37" t="n">
+        <v>82</v>
+      </c>
+      <c r="K37" t="n">
+        <v>324.5760069416173</v>
+      </c>
+      <c r="L37" t="n">
+        <v>24.95037025099368</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8973973191709612</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.4146341463414634</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2533987989138007</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.9375243399477836</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1328</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>336</v>
+      </c>
+      <c r="B38" t="n">
+        <v>353</v>
+      </c>
+      <c r="C38" t="n">
+        <v>451</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.961050001326827</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.432807531078083</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5282424702487442</v>
+      </c>
+      <c r="G38" t="n">
+        <v>115</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26.87379298414891</v>
+      </c>
+      <c r="I38" t="n">
+        <v>17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>98</v>
+      </c>
+      <c r="K38" t="n">
+        <v>146.0977535052064</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9.61972519260237</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7974627961973049</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.173469387755102</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.3601696896016123</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6593174967016588</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1329</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>145</v>
+      </c>
+      <c r="B39" t="n">
+        <v>192</v>
+      </c>
+      <c r="C39" t="n">
+        <v>285</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.22070986796366</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6893692986582348</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.5313405693054251</v>
+      </c>
+      <c r="G39" t="n">
+        <v>140</v>
+      </c>
+      <c r="H39" t="n">
+        <v>37.55426780276545</v>
+      </c>
+      <c r="I39" t="n">
+        <v>47</v>
+      </c>
+      <c r="J39" t="n">
+        <v>93</v>
+      </c>
+      <c r="K39" t="n">
+        <v>51.90661828404772</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.471823555078843</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5092852200246685</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5190979195400501</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.2587302313910569</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1330</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.221954233412256</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6906136641068312</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5313405693054251</v>
+      </c>
+      <c r="G40" t="n">
+        <v>49</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12.76580821162793</v>
+      </c>
+      <c r="I40" t="n">
+        <v>18</v>
+      </c>
+      <c r="J40" t="n">
+        <v>31</v>
+      </c>
+      <c r="K40" t="n">
+        <v>39.77025237693812</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.477401414610785</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7307663919002778</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3789773291547354</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.6241262637977361</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1331</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>124</v>
+      </c>
+      <c r="B41" t="n">
+        <v>174</v>
+      </c>
+      <c r="C41" t="n">
+        <v>283</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.533383675463391</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.947548819776263</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5858348556871282</v>
+      </c>
+      <c r="G41" t="n">
+        <v>159</v>
+      </c>
+      <c r="H41" t="n">
+        <v>111.0907232678827</v>
+      </c>
+      <c r="I41" t="n">
+        <v>50</v>
+      </c>
+      <c r="J41" t="n">
+        <v>109</v>
+      </c>
+      <c r="K41" t="n">
+        <v>216.5636242882582</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.323155942781029</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7442052738674384</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.6792846406297214</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9140179279579544</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1332</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>726</v>
+      </c>
+      <c r="B42" t="n">
+        <v>782</v>
+      </c>
+      <c r="C42" t="n">
+        <v>902</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.327978896107691</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.742144040420563</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5858348556871282</v>
+      </c>
+      <c r="G42" t="n">
+        <v>176</v>
+      </c>
+      <c r="H42" t="n">
+        <v>108.3069270520612</v>
+      </c>
+      <c r="I42" t="n">
+        <v>56</v>
+      </c>
+      <c r="J42" t="n">
+        <v>120</v>
+      </c>
+      <c r="K42" t="n">
+        <v>282.1463405059342</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.306412383637106</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8134906742921859</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.1986852702956619</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.8648384479476269</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1333</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>821</v>
+      </c>
+      <c r="B43" t="n">
+        <v>871</v>
+      </c>
+      <c r="C43" t="n">
+        <v>936</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.577959307308596</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.904631916557854</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6733273907507425</v>
+      </c>
+      <c r="G43" t="n">
+        <v>115</v>
+      </c>
+      <c r="H43" t="n">
+        <v>142.7590403314874</v>
+      </c>
+      <c r="I43" t="n">
+        <v>50</v>
+      </c>
+      <c r="J43" t="n">
+        <v>65</v>
+      </c>
+      <c r="K43" t="n">
+        <v>312.4531378934695</v>
+      </c>
+      <c r="L43" t="n">
+        <v>25.88021531454633</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6421537263551548</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1732996252270946</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9579940636179833</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1334</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4849654398826105</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.188361950868132</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6733273907507425</v>
+      </c>
+      <c r="G44" t="n">
+        <v>79</v>
+      </c>
+      <c r="H44" t="n">
+        <v>25.48949086312928</v>
+      </c>
+      <c r="I44" t="n">
+        <v>29</v>
+      </c>
+      <c r="J44" t="n">
+        <v>50</v>
+      </c>
+      <c r="K44" t="n">
+        <v>17.55461721099896</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.507868292028376</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6920260763782722</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.4735645721293205</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.3049095962058581</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1335</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>135</v>
+      </c>
+      <c r="B45" t="n">
+        <v>183</v>
+      </c>
+      <c r="C45" t="n">
+        <v>247</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.300957472458076</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6699795539155361</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.6309779185425402</v>
+      </c>
+      <c r="G45" t="n">
+        <v>112</v>
+      </c>
+      <c r="H45" t="n">
+        <v>55.25909527098131</v>
+      </c>
+      <c r="I45" t="n">
+        <v>48</v>
+      </c>
+      <c r="J45" t="n">
+        <v>64</v>
+      </c>
+      <c r="K45" t="n">
+        <v>73.15904769427571</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.080641860186681</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7287668582880096</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6080574612766231</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6899306393693596</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1336</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>408</v>
+      </c>
+      <c r="B46" t="n">
+        <v>432</v>
+      </c>
+      <c r="C46" t="n">
+        <v>470</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.699462650298401</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.068484731755861</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.6309779185425402</v>
+      </c>
+      <c r="G46" t="n">
+        <v>62</v>
+      </c>
+      <c r="H46" t="n">
+        <v>16.05773074527923</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>38</v>
+      </c>
+      <c r="K46" t="n">
+        <v>112.8204237835921</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8.467256250894179</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.7661786662802014</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.4713925050286363</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8562419270832294</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1337</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>470</v>
+      </c>
+      <c r="B47" t="n">
+        <v>495</v>
+      </c>
+      <c r="C47" t="n">
+        <v>542</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.942789715528677</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.311811796986137</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.6309779185425402</v>
+      </c>
+      <c r="G47" t="n">
+        <v>72</v>
+      </c>
+      <c r="H47" t="n">
+        <v>118.8274723704466</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>47</v>
+      </c>
+      <c r="K47" t="n">
+        <v>142.4801047039691</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9.230486893798252</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7164504302600321</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.1258266868175887</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9768954687982273</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1338</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>932</v>
+      </c>
+      <c r="B48" t="n">
+        <v>959</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.747497871545992</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.218192094476572</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5293057770694204</v>
+      </c>
+      <c r="G48" t="n">
+        <v>172</v>
+      </c>
+      <c r="H48" t="n">
+        <v>91.58787437694741</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>145</v>
+      </c>
+      <c r="K48" t="n">
+        <v>208.4689739312514</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10.81832827426983</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8432299615591923</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.1862068965517241</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2815140640043836</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.6841616001387159</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1339</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>219</v>
+      </c>
+      <c r="B49" t="n">
+        <v>234</v>
+      </c>
+      <c r="C49" t="n">
+        <v>286</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.910817626430164</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.414473402161969</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.4963442242681946</v>
+      </c>
+      <c r="G49" t="n">
+        <v>67</v>
+      </c>
+      <c r="H49" t="n">
+        <v>16.29622276367871</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15</v>
+      </c>
+      <c r="J49" t="n">
+        <v>52</v>
+      </c>
+      <c r="K49" t="n">
+        <v>80.62098683182549</v>
+      </c>
+      <c r="L49" t="n">
+        <v>17.91220014942307</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.9244110405308151</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.2884615384615384</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4047599826167</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9911384768454139</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1340</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>844</v>
+      </c>
+      <c r="B50" t="n">
+        <v>881</v>
+      </c>
+      <c r="C50" t="n">
+        <v>931</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.601079098339609</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.835804615747168</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.7652744825924412</v>
+      </c>
+      <c r="G50" t="n">
+        <v>87</v>
+      </c>
+      <c r="H50" t="n">
+        <v>54.93603632757481</v>
+      </c>
+      <c r="I50" t="n">
+        <v>37</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50</v>
+      </c>
+      <c r="K50" t="n">
+        <v>175.4594192791161</v>
+      </c>
+      <c r="L50" t="n">
+        <v>8.279151221533798</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6150022013000257</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.07179110970138319</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8633855137134269</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1341</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>931</v>
+      </c>
+      <c r="B51" t="n">
+        <v>985</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1054</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.499723172387217</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.734448689794776</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.7652744825924412</v>
+      </c>
+      <c r="G51" t="n">
+        <v>123</v>
+      </c>
+      <c r="H51" t="n">
+        <v>48.65509364498757</v>
+      </c>
+      <c r="I51" t="n">
+        <v>54</v>
+      </c>
+      <c r="J51" t="n">
+        <v>69</v>
+      </c>
+      <c r="K51" t="n">
+        <v>247.2666203176335</v>
+      </c>
+      <c r="L51" t="n">
+        <v>11.1395064441507</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.5798577895487633</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.08381591627476286</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8815285987272848</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1342</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1153</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.709474358978014</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9441998763855726</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.7652744825924412</v>
+      </c>
+      <c r="G52" t="n">
+        <v>99</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30.78315262253113</v>
+      </c>
+      <c r="I52" t="n">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
+        <v>82</v>
+      </c>
+      <c r="K52" t="n">
+        <v>116.5397017062547</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.441201975114118</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8236240691848205</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2073170731707317</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.1509209599093932</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.8125850101735576</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1343</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>746</v>
+      </c>
+      <c r="B53" t="n">
+        <v>764</v>
+      </c>
+      <c r="C53" t="n">
+        <v>818</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.940782352556948</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.341536280434099</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5992460721228491</v>
+      </c>
+      <c r="G53" t="n">
+        <v>72</v>
+      </c>
+      <c r="H53" t="n">
+        <v>106.2352119222318</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>54</v>
+      </c>
+      <c r="K53" t="n">
+        <v>122.8075818807039</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11.09555974078179</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.865937518097725</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.3640631533942976</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.884302539984709</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1344</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.28329856885447</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.62974790558661</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.6535506632678593</v>
+      </c>
+      <c r="G54" t="n">
         <v>134</v>
       </c>
-      <c r="H28" t="n">
-        <v>42.32848731306422</v>
-      </c>
-      <c r="I28" t="n">
-        <v>42</v>
-      </c>
-      <c r="J28" t="n">
-        <v>92</v>
-      </c>
-      <c r="K28" t="n">
-        <v>241.9078795788602</v>
-      </c>
-      <c r="L28" t="n">
-        <v>15.04946393834016</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>0.8584976985625601</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.3242051739964346</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.8809690418517047</v>
-      </c>
-      <c r="T28" t="inlineStr">
+      <c r="H54" t="n">
+        <v>41.27244700288747</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41</v>
+      </c>
+      <c r="J54" t="n">
+        <v>93</v>
+      </c>
+      <c r="K54" t="n">
+        <v>243.7052863965557</v>
+      </c>
+      <c r="L54" t="n">
+        <v>15.27093526613181</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8606759261087749</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.4408602150537634</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3071545836339739</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.8800949110884895</v>
+      </c>
+      <c r="T54" t="inlineStr">
         <is>
           <t>n35</t>
         </is>
       </c>
-      <c r="U28" t="n">
-        <v>631</v>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
+      <c r="U54" t="n">
+        <v>1345</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>142</v>
+      </c>
+      <c r="B55" t="n">
+        <v>161</v>
+      </c>
+      <c r="C55" t="n">
+        <v>220</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.602763373613526</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9488306421621229</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.6539327314514034</v>
+      </c>
+      <c r="G55" t="n">
+        <v>78</v>
+      </c>
+      <c r="H55" t="n">
+        <v>18.22385167211795</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19</v>
+      </c>
+      <c r="J55" t="n">
+        <v>59</v>
+      </c>
+      <c r="K55" t="n">
+        <v>88.63982788009912</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.975777975785833</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8469959245164573</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.22987567424487</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.7429691190510217</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1346</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>38</v>
@@ -566,31 +566,31 @@
         <v>89</v>
       </c>
       <c r="D2" t="n">
-        <v>2.26595298989872</v>
+        <v>2.289363068306635</v>
       </c>
       <c r="E2" t="n">
-        <v>1.700295270198984</v>
+        <v>1.738617541932197</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5656577196997367</v>
+        <v>-0.5507455263744379</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>47.40421494287187</v>
+        <v>51.4589219806478</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
         <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>112.0514685202622</v>
+        <v>110.9934666392257</v>
       </c>
       <c r="L2" t="n">
-        <v>4.378294170502101</v>
+        <v>4.424760836246001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.691293837900918</v>
+        <v>0.7077756846794596</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1196350093214146</v>
+        <v>0.147558053096533</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8096561374719169</v>
+        <v>0.816794097285228</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1293</v>
+        <v>1018</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89</v>
+        <v>522</v>
       </c>
       <c r="B3" t="n">
-        <v>118</v>
+        <v>576</v>
       </c>
       <c r="C3" t="n">
-        <v>206</v>
+        <v>647</v>
       </c>
       <c r="D3" t="n">
-        <v>1.964419324514858</v>
+        <v>2.234955894644874</v>
       </c>
       <c r="E3" t="n">
-        <v>1.398761604815122</v>
+        <v>1.489588973748864</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5656577196997367</v>
+        <v>-0.74536692089601</v>
       </c>
       <c r="G3" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H3" t="n">
-        <v>29.94257637812635</v>
+        <v>105.8956070414932</v>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="J3" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
-        <v>90.46858395998736</v>
+        <v>220.0652230530986</v>
       </c>
       <c r="L3" t="n">
-        <v>3.795668186977482</v>
+        <v>6.1291356190352</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8912846540163255</v>
+        <v>0.5520363361471448</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3295454545454545</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3628246600803324</v>
+        <v>0.1844443214312318</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9094869222972821</v>
+        <v>0.9411242230019115</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1294</v>
+        <v>1019</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>522</v>
+        <v>647</v>
       </c>
       <c r="B4" t="n">
-        <v>575</v>
+        <v>672</v>
       </c>
       <c r="C4" t="n">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="D4" t="n">
-        <v>2.242717375998254</v>
+        <v>1.715974510489667</v>
       </c>
       <c r="E4" t="n">
-        <v>1.491917657229527</v>
+        <v>0.9706075895936566</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7507997187687266</v>
+        <v>-0.74536692089601</v>
       </c>
       <c r="G4" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
-        <v>106.3710412717445</v>
+        <v>52.59377469965523</v>
       </c>
       <c r="I4" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>220.8695446640798</v>
+        <v>130.9456066797237</v>
       </c>
       <c r="L4" t="n">
-        <v>6.151165842756297</v>
+        <v>4.7058827956289</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.5755762692999591</v>
+        <v>0.8089346475114824</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1957659912028115</v>
+        <v>0.1399583188045198</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9334294763567957</v>
+        <v>0.7794601060780114</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1295</v>
+        <v>1020</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>647</v>
+        <v>310</v>
       </c>
       <c r="B5" t="n">
-        <v>671</v>
+        <v>342</v>
       </c>
       <c r="C5" t="n">
-        <v>747</v>
+        <v>432</v>
       </c>
       <c r="D5" t="n">
-        <v>1.738867945956176</v>
+        <v>2.618386775194768</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9880682271874494</v>
+        <v>1.864278017909816</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7507997187687266</v>
+        <v>-0.754108757284952</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H5" t="n">
-        <v>52.40914905999648</v>
+        <v>43.35376335978088</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>131.9701527664775</v>
+        <v>170.7175495181594</v>
       </c>
       <c r="L5" t="n">
-        <v>4.76924343151732</v>
+        <v>11.69931969679778</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8247545805068468</v>
+        <v>0.9460378642655617</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1426161655022343</v>
+        <v>0.2364946334505787</v>
       </c>
       <c r="S5" t="n">
-        <v>0.783934477317866</v>
+        <v>0.9931922802830551</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1296</v>
+        <v>1021</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="B6" t="n">
-        <v>342</v>
+        <v>513</v>
       </c>
       <c r="C6" t="n">
-        <v>432</v>
+        <v>641</v>
       </c>
       <c r="D6" t="n">
-        <v>2.650527047732333</v>
+        <v>3.464737663945207</v>
       </c>
       <c r="E6" t="n">
-        <v>1.894508658870622</v>
+        <v>2.710628906660255</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7560183888617108</v>
+        <v>-0.754108757284952</v>
       </c>
       <c r="G6" t="n">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="H6" t="n">
-        <v>42.88205460407437</v>
+        <v>236.4651355230665</v>
       </c>
       <c r="I6" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="K6" t="n">
-        <v>169.958942967051</v>
+        <v>433.5108789537794</v>
       </c>
       <c r="L6" t="n">
-        <v>11.84621733278649</v>
+        <v>15.480934283674</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9512941836791922</v>
+        <v>0.6734474699165883</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3444444444444444</v>
+        <v>0.6328125</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2487074867888292</v>
+        <v>0.6959125224259572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9945192627444995</v>
+        <v>0.9200549423853297</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1297</v>
+        <v>1022</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B7" t="n">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="C7" t="n">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="D7" t="n">
-        <v>3.504643445866315</v>
+        <v>2.466315640402821</v>
       </c>
       <c r="E7" t="n">
-        <v>2.748625057004604</v>
+        <v>1.608584888208909</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7560183888617108</v>
+        <v>-0.8577307521939126</v>
       </c>
       <c r="G7" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H7" t="n">
-        <v>235.6419214772311</v>
+        <v>102.1941438007221</v>
       </c>
       <c r="I7" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" t="n">
-        <v>435.7016386303306</v>
+        <v>288.3630948184253</v>
       </c>
       <c r="L7" t="n">
-        <v>15.66358961293299</v>
+        <v>7.509382381912874</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.6600027786569658</v>
+        <v>0.7082843053340686</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7194833912485089</v>
+        <v>0.3085757534102792</v>
       </c>
       <c r="S7" t="n">
-        <v>0.918250139696731</v>
+        <v>0.9048909807667155</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1298</v>
+        <v>1023</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>376</v>
+        <v>576</v>
       </c>
       <c r="B8" t="n">
-        <v>443</v>
+        <v>611</v>
       </c>
       <c r="C8" t="n">
-        <v>577</v>
+        <v>686</v>
       </c>
       <c r="D8" t="n">
-        <v>2.460952574170151</v>
+        <v>2.640824635725086</v>
       </c>
       <c r="E8" t="n">
-        <v>1.606467008813521</v>
+        <v>1.783093883531174</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8544855653566304</v>
+        <v>-0.8577307521939126</v>
       </c>
       <c r="G8" t="n">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H8" t="n">
-        <v>101.8546462990947</v>
+        <v>31.40133488911886</v>
       </c>
       <c r="I8" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="K8" t="n">
-        <v>288.3479413339646</v>
+        <v>221.9068549065102</v>
       </c>
       <c r="L8" t="n">
-        <v>7.484992199676063</v>
+        <v>8.040723445275022</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7219148430475049</v>
+        <v>0.7291248734065626</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>0.308301787441347</v>
+        <v>0.5029429258725451</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9015531665066646</v>
+        <v>0.3799860847342929</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1299</v>
+        <v>1024</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>577</v>
+        <v>686</v>
       </c>
       <c r="B9" t="n">
-        <v>611</v>
+        <v>714</v>
       </c>
       <c r="C9" t="n">
-        <v>687</v>
+        <v>858</v>
       </c>
       <c r="D9" t="n">
-        <v>2.643167360400665</v>
+        <v>2.969590990341454</v>
       </c>
       <c r="E9" t="n">
-        <v>1.788681795044035</v>
+        <v>2.111860238147541</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8544855653566304</v>
+        <v>-0.8577307521939126</v>
       </c>
       <c r="G9" t="n">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="H9" t="n">
-        <v>31.72138361699922</v>
+        <v>170.0639280810057</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="K9" t="n">
-        <v>222.7376891335766</v>
+        <v>235.3939742295529</v>
       </c>
       <c r="L9" t="n">
-        <v>8.039198838160734</v>
+        <v>9.04174384618309</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7395087983948742</v>
+        <v>0.8673676946372731</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4810124186425799</v>
+        <v>0.4883791408958802</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3859994018833998</v>
+        <v>0.9211711990691661</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1300</v>
+        <v>1025</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>687</v>
+        <v>612</v>
       </c>
       <c r="B10" t="n">
-        <v>714</v>
+        <v>660</v>
       </c>
       <c r="C10" t="n">
-        <v>859</v>
+        <v>728</v>
       </c>
       <c r="D10" t="n">
-        <v>2.989490444458002</v>
+        <v>2.754758986544506</v>
       </c>
       <c r="E10" t="n">
-        <v>2.135004879101372</v>
+        <v>1.838944073181232</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8544855653566304</v>
+        <v>-0.9158149133632744</v>
       </c>
       <c r="G10" t="n">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="H10" t="n">
-        <v>170.4709981759846</v>
+        <v>44.57414763781878</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J10" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="K10" t="n">
-        <v>233.2027968786188</v>
+        <v>192.3195292749051</v>
       </c>
       <c r="L10" t="n">
-        <v>9.09254119426487</v>
+        <v>6.361132751505865</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8626034240192326</v>
+        <v>0.8375397865733738</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1862068965517241</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4968274736702403</v>
+        <v>0.2563480630836089</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9173634878499024</v>
+        <v>0.9919584818479886</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1301</v>
+        <v>1026</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>613</v>
+        <v>222</v>
       </c>
       <c r="B11" t="n">
-        <v>660</v>
+        <v>250</v>
       </c>
       <c r="C11" t="n">
-        <v>728</v>
+        <v>331</v>
       </c>
       <c r="D11" t="n">
-        <v>2.753229202372066</v>
+        <v>0.6413275668543925</v>
       </c>
       <c r="E11" t="n">
-        <v>1.841355678452043</v>
+        <v>0.03724234867913053</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.911873523920023</v>
+        <v>-0.604085218175262</v>
       </c>
       <c r="G11" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H11" t="n">
-        <v>44.71682435646517</v>
+        <v>28.4593542885969</v>
       </c>
       <c r="I11" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K11" t="n">
-        <v>191.9367088646413</v>
+        <v>28.17546747372733</v>
       </c>
       <c r="L11" t="n">
-        <v>6.358039320631725</v>
+        <v>3.365759611157262</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8392808782344457</v>
+        <v>0.764182485059536</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6911764705882353</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2407860757699729</v>
+        <v>0.5228762756935699</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9912449525335477</v>
+        <v>0.3562133890131546</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1302</v>
+        <v>1027</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="B12" t="n">
-        <v>249</v>
+        <v>390</v>
       </c>
       <c r="C12" t="n">
-        <v>333</v>
+        <v>565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6516488751780715</v>
+        <v>3.394014211412772</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04621381569003709</v>
+        <v>2.789928993237511</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6054350594880343</v>
+        <v>-0.604085218175262</v>
       </c>
       <c r="G12" t="n">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="H12" t="n">
-        <v>27.81623910738077</v>
+        <v>98.65719314740841</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="K12" t="n">
-        <v>28.45927847311988</v>
+        <v>346.204954225947</v>
       </c>
       <c r="L12" t="n">
-        <v>3.425172850257371</v>
+        <v>17.8121704770886</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7815076786589363</v>
+        <v>0.9464726848683602</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.3371428571428571</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5086047250317712</v>
+        <v>0.4442446755684927</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4041284624776722</v>
+        <v>0.9578501361419253</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1303</v>
+        <v>1028</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,73 +1503,73 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="B13" t="n">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="C13" t="n">
-        <v>565</v>
+        <v>400</v>
       </c>
       <c r="D13" t="n">
-        <v>3.411091254707026</v>
+        <v>1.208098783828986</v>
       </c>
       <c r="E13" t="n">
-        <v>2.805656195218992</v>
+        <v>0.5248107770522586</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6054350594880343</v>
+        <v>-0.6832880067767271</v>
       </c>
       <c r="G13" t="n">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="H13" t="n">
-        <v>98.075844126768</v>
+        <v>63.10835335342816</v>
       </c>
       <c r="I13" t="n">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="J13" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K13" t="n">
-        <v>346.3788198323414</v>
+        <v>169.9000101425569</v>
       </c>
       <c r="L13" t="n">
-        <v>17.92925239405986</v>
+        <v>3.922695411424155</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(362), 'value': np.float64(0.28626326878574765), 'amplitude': np.float64(0.9695512755624747), 'start_idx': np.int64(347), 'end_idx': np.int64(399), 'duration': np.float64(52.0), 'fwhm': np.float64(26.090729044817238), 'rise_time': np.float64(15.0), 'decay_time': np.float64(37.0), 'auc': np.float64(36.08812256151378)}]</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9513695928882699</v>
+        <v>0.4731591217176631</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3257142857142857</v>
+        <v>0.6257668711656442</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4205973358958968</v>
+        <v>0.5518863647654798</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9555275802949157</v>
+        <v>0.3234611865492385</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1304</v>
+        <v>1029</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1592,37 +1592,37 @@
         <v>1033</v>
       </c>
       <c r="B14" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C14" t="n">
         <v>1107</v>
       </c>
       <c r="D14" t="n">
-        <v>3.034985892418678</v>
+        <v>3.036557519221138</v>
       </c>
       <c r="E14" t="n">
-        <v>2.349651776073446</v>
+        <v>2.353269512444411</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.685334116345232</v>
+        <v>-0.6832880067767271</v>
       </c>
       <c r="G14" t="n">
         <v>74</v>
       </c>
       <c r="H14" t="n">
-        <v>36.71862835607499</v>
+        <v>35.21660712331072</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
-        <v>174.0889697703638</v>
+        <v>173.8601368809392</v>
       </c>
       <c r="L14" t="n">
-        <v>9.863080903586834</v>
+        <v>9.859698897652747</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7422573436822557</v>
+        <v>0.7388936211549988</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="R14" t="n">
-        <v>0.7755525023726026</v>
+        <v>0.7314968244154754</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7240309532218303</v>
+        <v>0.7308284895981204</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1305</v>
+        <v>1030</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1684,19 +1684,19 @@
         <v>1183</v>
       </c>
       <c r="D15" t="n">
-        <v>3.461280463478277</v>
+        <v>3.421912636503011</v>
       </c>
       <c r="E15" t="n">
-        <v>2.775946347133045</v>
+        <v>2.738624629726284</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.685334116345232</v>
+        <v>-0.6832880067767271</v>
       </c>
       <c r="G15" t="n">
         <v>76</v>
       </c>
       <c r="H15" t="n">
-        <v>22.65544348735557</v>
+        <v>23.76798482494678</v>
       </c>
       <c r="I15" t="n">
         <v>22</v>
@@ -1705,10 +1705,10 @@
         <v>54</v>
       </c>
       <c r="K15" t="n">
-        <v>218.3121720343674</v>
+        <v>218.37160960653</v>
       </c>
       <c r="L15" t="n">
-        <v>11.24845071819573</v>
+        <v>11.1109465361442</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6180582297581809</v>
+        <v>0.6227422270246565</v>
       </c>
       <c r="Q15" t="n">
         <v>0.4074074074074074</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08256704927987811</v>
+        <v>0.07873490958604722</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3038101177999362</v>
+        <v>0.3078417990624461</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1306</v>
+        <v>1031</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="B16" t="n">
-        <v>1029</v>
+        <v>1094</v>
       </c>
       <c r="C16" t="n">
-        <v>1067</v>
+        <v>1183</v>
       </c>
       <c r="D16" t="n">
-        <v>4.64090110250748</v>
+        <v>3.16090828409573</v>
       </c>
       <c r="E16" t="n">
-        <v>4.157148910044429</v>
+        <v>2.681297403336384</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4837521924630519</v>
+        <v>-0.4796108807593464</v>
       </c>
       <c r="G16" t="n">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="H16" t="n">
-        <v>41.69529217893944</v>
+        <v>24.52620944859177</v>
       </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K16" t="n">
-        <v>199.5993643702814</v>
+        <v>237.0096670732863</v>
       </c>
       <c r="L16" t="n">
-        <v>19.23696153446585</v>
+        <v>13.24080615371841</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7724763784478997</v>
+        <v>0.8645481279902991</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3696059564031588</v>
+        <v>0.3260801749611214</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9855455656849027</v>
+        <v>0.829599058429784</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1307</v>
+        <v>1032</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1067</v>
+        <v>203</v>
       </c>
       <c r="B17" t="n">
-        <v>1093</v>
+        <v>234</v>
       </c>
       <c r="C17" t="n">
-        <v>1183</v>
+        <v>285</v>
       </c>
       <c r="D17" t="n">
-        <v>3.194714100983264</v>
+        <v>1.050382515205428</v>
       </c>
       <c r="E17" t="n">
-        <v>2.710961908520212</v>
+        <v>0.6142452158091759</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4837521924630519</v>
+        <v>-0.4361372993962525</v>
       </c>
       <c r="G17" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="H17" t="n">
-        <v>23.72035563866302</v>
+        <v>35.68508060528731</v>
       </c>
       <c r="I17" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="K17" t="n">
-        <v>237.3442899261646</v>
+        <v>42.60195515705574</v>
       </c>
       <c r="L17" t="n">
-        <v>13.242383519232</v>
+        <v>6.019944806466358</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8689857645022219</v>
+        <v>0.8277494756484246</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3171724268670437</v>
+        <v>0.2624776785301478</v>
       </c>
       <c r="S17" t="n">
-        <v>0.829804330183355</v>
+        <v>0.9119637988139313</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1308</v>
+        <v>1033</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>203</v>
+        <v>1000</v>
       </c>
       <c r="B18" t="n">
-        <v>234</v>
+        <v>1038</v>
       </c>
       <c r="C18" t="n">
-        <v>285</v>
+        <v>1183</v>
       </c>
       <c r="D18" t="n">
-        <v>1.063779476951557</v>
+        <v>4.772747493904462</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6271357791829975</v>
+        <v>4.33661019450821</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4366436977685597</v>
+        <v>-0.4361372993962525</v>
       </c>
       <c r="G18" t="n">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="H18" t="n">
-        <v>35.08894814078167</v>
+        <v>67.10505750686514</v>
       </c>
       <c r="I18" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="K18" t="n">
-        <v>42.60216914445653</v>
+        <v>373.8631383007365</v>
       </c>
       <c r="L18" t="n">
-        <v>6.091435971334963</v>
+        <v>27.35353651891882</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8292957540719268</v>
+        <v>0.968577299040372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.2620689655172414</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2575878583450509</v>
+        <v>0.3338032089822258</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9089777959908636</v>
+        <v>0.9383782806124934</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1309</v>
+        <v>1034</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1001</v>
+        <v>487</v>
       </c>
       <c r="B19" t="n">
-        <v>1038</v>
+        <v>517</v>
       </c>
       <c r="C19" t="n">
-        <v>1183</v>
+        <v>594</v>
       </c>
       <c r="D19" t="n">
-        <v>4.756898741024241</v>
+        <v>3.75539100048907</v>
       </c>
       <c r="E19" t="n">
-        <v>4.320255043255681</v>
+        <v>3.17515351815273</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4366436977685597</v>
+        <v>-0.5802374823363408</v>
       </c>
       <c r="G19" t="n">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="H19" t="n">
-        <v>67.44795981391621</v>
+        <v>77.44039755896705</v>
       </c>
       <c r="I19" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="K19" t="n">
-        <v>373.8490385075791</v>
+        <v>244.328783064313</v>
       </c>
       <c r="L19" t="n">
-        <v>27.23905163700822</v>
+        <v>21.20280447654227</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9664369130960501</v>
+        <v>0.8828272585707</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2551724137931035</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3459078331000986</v>
+        <v>0.2336334620439727</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9374571735207576</v>
+        <v>0.9875039909915652</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1310</v>
+        <v>1035</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>407</v>
+        <v>1072</v>
       </c>
       <c r="B20" t="n">
-        <v>442</v>
+        <v>1094</v>
       </c>
       <c r="C20" t="n">
-        <v>487</v>
+        <v>1130</v>
       </c>
       <c r="D20" t="n">
-        <v>3.087139249107747</v>
+        <v>0.7985866720197963</v>
       </c>
       <c r="E20" t="n">
-        <v>2.505064809483654</v>
+        <v>0.2183491896834555</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.582074439624092</v>
+        <v>-0.5802374823363408</v>
       </c>
       <c r="G20" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H20" t="n">
-        <v>44.43432596866842</v>
+        <v>31.52530565839197</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K20" t="n">
-        <v>173.7201423687068</v>
+        <v>26.32986773269195</v>
       </c>
       <c r="L20" t="n">
-        <v>17.39936033432217</v>
+        <v>4.508792043812006</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.755596571471045</v>
+        <v>0.7388234624717208</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4830871327041658</v>
+        <v>0.1700137986630635</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8862365292787896</v>
+        <v>0.8226163578919852</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1311</v>
+        <v>1036</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>516</v>
+        <v>89</v>
       </c>
       <c r="C21" t="n">
-        <v>594</v>
+        <v>315</v>
       </c>
       <c r="D21" t="n">
-        <v>3.780654744400369</v>
+        <v>4.63749504322154</v>
       </c>
       <c r="E21" t="n">
-        <v>3.198580304776277</v>
+        <v>4.119507188878639</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.582074439624092</v>
+        <v>-0.5179878543429012</v>
       </c>
       <c r="G21" t="n">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="H21" t="n">
-        <v>74.15338437598581</v>
+        <v>70.5989268306503</v>
       </c>
       <c r="I21" t="n">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="J21" t="n">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="K21" t="n">
-        <v>244.4220131179704</v>
+        <v>472.3379025401325</v>
       </c>
       <c r="L21" t="n">
-        <v>21.3080683731707</v>
+        <v>18.35259528907162</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8895875959626836</v>
+        <v>0.6753683707572631</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3717948717948718</v>
+        <v>0.3938053097345133</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2160108987867842</v>
+        <v>0.2532672125862311</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9876455898178262</v>
+        <v>0.9141888276328405</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1312</v>
+        <v>1037</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1072</v>
+        <v>770</v>
       </c>
       <c r="B22" t="n">
-        <v>1093</v>
+        <v>817</v>
       </c>
       <c r="C22" t="n">
-        <v>1131</v>
+        <v>952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8200042879922257</v>
+        <v>2.797178431254184</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2379298483681337</v>
+        <v>2.146942655604514</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.582074439624092</v>
+        <v>-0.6502357756496699</v>
       </c>
       <c r="G22" t="n">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="H22" t="n">
-        <v>30.98744424197366</v>
+        <v>53.49914004440018</v>
       </c>
       <c r="I22" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J22" t="n">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="K22" t="n">
-        <v>26.71943460065531</v>
+        <v>226.5498617218531</v>
       </c>
       <c r="L22" t="n">
-        <v>4.621608852464195</v>
+        <v>9.173098039079941</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7573192515497289</v>
+        <v>0.888510989654388</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.3481481481481482</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1750765777766658</v>
+        <v>0.3627764113982382</v>
       </c>
       <c r="S22" t="n">
-        <v>0.791150143646523</v>
+        <v>0.8505892384526045</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1313</v>
+        <v>1038</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>519</v>
       </c>
       <c r="C23" t="n">
-        <v>313</v>
+        <v>644</v>
       </c>
       <c r="D23" t="n">
-        <v>4.645161379599599</v>
+        <v>3.200280283536502</v>
       </c>
       <c r="E23" t="n">
-        <v>4.129715281752072</v>
+        <v>2.590130111472835</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5154460978475267</v>
+        <v>-0.6101501720636674</v>
       </c>
       <c r="G23" t="n">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="H23" t="n">
-        <v>70.48954072051423</v>
+        <v>65.19596867126211</v>
       </c>
       <c r="I23" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J23" t="n">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="K23" t="n">
-        <v>470.9540178733313</v>
+        <v>247.0466945918747</v>
       </c>
       <c r="L23" t="n">
-        <v>18.37000783507643</v>
+        <v>14.28438254594278</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.6738592230561681</v>
+        <v>0.9279611532001815</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3973214285714285</v>
+        <v>0.224</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2492100286329897</v>
+        <v>0.2671610001403669</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9119206985099348</v>
+        <v>0.8776783851613442</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1314</v>
+        <v>1039</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>770</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>817</v>
+        <v>89</v>
       </c>
       <c r="C24" t="n">
-        <v>952</v>
+        <v>177</v>
       </c>
       <c r="D24" t="n">
-        <v>2.846372298797783</v>
+        <v>2.872926969762361</v>
       </c>
       <c r="E24" t="n">
-        <v>2.190986615854847</v>
+        <v>2.325869325714033</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6553856829429358</v>
+        <v>-0.5470576440483277</v>
       </c>
       <c r="G24" t="n">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="H24" t="n">
-        <v>52.137443962833</v>
+        <v>40.31490280039077</v>
       </c>
       <c r="I24" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J24" t="n">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="K24" t="n">
-        <v>227.6007648824157</v>
+        <v>143.4262767222835</v>
       </c>
       <c r="L24" t="n">
-        <v>9.32957077675538</v>
+        <v>6.991877479916791</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8839318122310577</v>
+        <v>0.8630245148471283</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3481481481481482</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3656022900435984</v>
+        <v>0.2914272507408853</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8469696761969003</v>
+        <v>0.9257030742140449</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1315</v>
+        <v>1040</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>491</v>
+        <v>822</v>
       </c>
       <c r="B25" t="n">
-        <v>519</v>
+        <v>842</v>
       </c>
       <c r="C25" t="n">
-        <v>644</v>
+        <v>896</v>
       </c>
       <c r="D25" t="n">
-        <v>3.238647556274666</v>
+        <v>1.734934679408297</v>
       </c>
       <c r="E25" t="n">
-        <v>2.62980075379881</v>
+        <v>1.18787703535997</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6088468024758561</v>
+        <v>-0.5470576440483277</v>
       </c>
       <c r="G25" t="n">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="H25" t="n">
-        <v>64.18398297624418</v>
+        <v>34.74146379398508</v>
       </c>
       <c r="I25" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="K25" t="n">
-        <v>246.8847786695012</v>
+        <v>68.31422579285147</v>
       </c>
       <c r="L25" t="n">
-        <v>14.47290714283264</v>
+        <v>4.222331734065946</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.928642273730668</v>
+        <v>0.9125524198207877</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.224</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2844718575682763</v>
+        <v>0.2109777797951369</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8710526333284878</v>
+        <v>0.9739851667125772</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1316</v>
+        <v>1041</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>48</v>
+        <v>1065</v>
       </c>
       <c r="B26" t="n">
-        <v>88</v>
+        <v>1102</v>
       </c>
       <c r="C26" t="n">
-        <v>178</v>
+        <v>1183</v>
       </c>
       <c r="D26" t="n">
-        <v>2.900026691971878</v>
+        <v>2.898048477380299</v>
       </c>
       <c r="E26" t="n">
-        <v>2.357398142860808</v>
+        <v>2.18452199683388</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5426285491110702</v>
+        <v>-0.7135264805464191</v>
       </c>
       <c r="G26" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H26" t="n">
-        <v>39.25153836647151</v>
+        <v>36.04563843089159</v>
       </c>
       <c r="I26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J26" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0068059305031</v>
+        <v>254.1213056510625</v>
       </c>
       <c r="L26" t="n">
-        <v>7.038368857203849</v>
+        <v>9.910493520310958</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8600185437684776</v>
+        <v>0.807089440356543</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2656056673612935</v>
+        <v>0.142608047563285</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8974245365950068</v>
+        <v>0.9909674228133724</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1317</v>
+        <v>1042</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>822</v>
+        <v>660</v>
       </c>
       <c r="B27" t="n">
-        <v>841</v>
+        <v>690</v>
       </c>
       <c r="C27" t="n">
-        <v>896</v>
+        <v>762</v>
       </c>
       <c r="D27" t="n">
-        <v>1.737427626182903</v>
+        <v>1.959231406913241</v>
       </c>
       <c r="E27" t="n">
-        <v>1.194799077071833</v>
+        <v>1.182685110410592</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5426285491110702</v>
+        <v>-0.7765462965026488</v>
       </c>
       <c r="G27" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H27" t="n">
-        <v>35.14389943352353</v>
+        <v>43.97248457953583</v>
       </c>
       <c r="I27" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K27" t="n">
-        <v>68.36295548839321</v>
+        <v>171.1170580876826</v>
       </c>
       <c r="L27" t="n">
-        <v>4.216739290580963</v>
+        <v>6.396901124821468</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9120164539598318</v>
+        <v>0.7371296822081432</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3454545454545455</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1993057306069308</v>
+        <v>0.1004587245321562</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9711667471638237</v>
+        <v>0.6807855082125531</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1318</v>
+        <v>1043</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1065</v>
+        <v>125</v>
       </c>
       <c r="B28" t="n">
-        <v>1101</v>
+        <v>153</v>
       </c>
       <c r="C28" t="n">
-        <v>1183</v>
+        <v>341</v>
       </c>
       <c r="D28" t="n">
-        <v>2.897245851444884</v>
+        <v>3.376348244083546</v>
       </c>
       <c r="E28" t="n">
-        <v>2.1827379378289</v>
+        <v>2.685096665002089</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.7145079136159846</v>
+        <v>-0.6912515790814575</v>
       </c>
       <c r="G28" t="n">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="H28" t="n">
-        <v>35.21512276977091</v>
+        <v>52.81152439662273</v>
       </c>
       <c r="I28" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J28" t="n">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="K28" t="n">
-        <v>254.1724644315449</v>
+        <v>222.6271847852149</v>
       </c>
       <c r="L28" t="n">
-        <v>9.91601762840674</v>
+        <v>13.28493619471602</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8030561176196048</v>
+        <v>0.8142571230386967</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1343918719134655</v>
+        <v>0.5268945379590833</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9902384119160167</v>
+        <v>0.7595753960122328</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1319</v>
+        <v>1044</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B29" t="n">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="C29" t="n">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="D29" t="n">
-        <v>1.961776384943015</v>
+        <v>1.410369304969392</v>
       </c>
       <c r="E29" t="n">
-        <v>1.188752315861302</v>
+        <v>0.7191177258879343</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.773024069081713</v>
+        <v>-0.6912515790814575</v>
       </c>
       <c r="G29" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" t="n">
-        <v>46.2973367390191</v>
+        <v>38.71359964261376</v>
       </c>
       <c r="I29" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J29" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K29" t="n">
-        <v>171.3693571622646</v>
+        <v>76.0064376288274</v>
       </c>
       <c r="L29" t="n">
-        <v>6.393134591475504</v>
+        <v>5.549387940161994</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7041750143835969</v>
+        <v>0.9548860133846779</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09479699144462725</v>
+        <v>0.2927641999923384</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6587467785844989</v>
+        <v>0.9564311320731634</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1320</v>
+        <v>1045</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>853</v>
+        <v>744</v>
       </c>
       <c r="B30" t="n">
-        <v>883</v>
+        <v>773</v>
       </c>
       <c r="C30" t="n">
-        <v>938</v>
+        <v>816</v>
       </c>
       <c r="D30" t="n">
-        <v>2.413801038453355</v>
+        <v>1.862983435729116</v>
       </c>
       <c r="E30" t="n">
-        <v>1.640776969371642</v>
+        <v>1.171731856647659</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.773024069081713</v>
+        <v>-0.6912515790814575</v>
       </c>
       <c r="G30" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H30" t="n">
-        <v>60.92039946090028</v>
+        <v>23.6235652785299</v>
       </c>
       <c r="I30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K30" t="n">
-        <v>174.8173353957146</v>
+        <v>82.70132931412837</v>
       </c>
       <c r="L30" t="n">
-        <v>7.866215045872263</v>
+        <v>7.330291275150151</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.5449532197492807</v>
+        <v>0.7871845159741689</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07225545727701436</v>
+        <v>0.2236848127386638</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7458942332329502</v>
+        <v>0.8456317265335327</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1321</v>
+        <v>1046</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>342</v>
+        <v>93</v>
       </c>
       <c r="D31" t="n">
-        <v>3.397091119930409</v>
+        <v>4.075272619956618</v>
       </c>
       <c r="E31" t="n">
-        <v>2.703545966873405</v>
+        <v>3.417904894458566</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6935451530570038</v>
+        <v>-0.6573677254980514</v>
       </c>
       <c r="G31" t="n">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="H31" t="n">
-        <v>52.11540220368829</v>
+        <v>31.87484705383226</v>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J31" t="n">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="K31" t="n">
-        <v>223.3014928087421</v>
+        <v>225.1196231886676</v>
       </c>
       <c r="L31" t="n">
-        <v>13.32851986460499</v>
+        <v>12.23600441164614</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8088764661087577</v>
+        <v>0.9082609593338982</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5196701973071175</v>
+        <v>0.3644694549403687</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7660789828507162</v>
+        <v>0.8409309364101325</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1322</v>
+        <v>1047</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>644</v>
+        <v>1127</v>
       </c>
       <c r="B32" t="n">
-        <v>668</v>
+        <v>1151</v>
       </c>
       <c r="C32" t="n">
-        <v>744</v>
+        <v>1183</v>
       </c>
       <c r="D32" t="n">
-        <v>1.423339445220996</v>
+        <v>1.836534388875715</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7297942921639918</v>
+        <v>1.179166663377664</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6935451530570038</v>
+        <v>-0.6573677254980514</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H32" t="n">
-        <v>38.30523905879079</v>
+        <v>24.35459112152989</v>
       </c>
       <c r="I32" t="n">
         <v>24</v>
       </c>
       <c r="J32" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="K32" t="n">
-        <v>76.47433162024792</v>
+        <v>70.17111769660889</v>
       </c>
       <c r="L32" t="n">
-        <v>5.584486079399752</v>
+        <v>5.514193768136748</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.9686597367757815</v>
+        <v>0.6987752660385723</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.75</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2768937857795635</v>
+        <v>0.1850690939197269</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9485868833485844</v>
+        <v>0.6331751875606509</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1323</v>
+        <v>1048</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>773</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>817</v>
+        <v>113</v>
       </c>
       <c r="D33" t="n">
-        <v>1.902376006229024</v>
+        <v>1.181462888552892</v>
       </c>
       <c r="E33" t="n">
-        <v>1.20883085317202</v>
+        <v>0.6580778770520731</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6935451530570038</v>
+        <v>-0.5233850115008192</v>
       </c>
       <c r="G33" t="n">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="H33" t="n">
-        <v>23.00507242748165</v>
+        <v>24.36582596920021</v>
       </c>
       <c r="I33" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="K33" t="n">
-        <v>83.75346000938062</v>
+        <v>66.59279773989664</v>
       </c>
       <c r="L33" t="n">
-        <v>7.463990659600229</v>
+        <v>5.833866182869785</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7774297531378341</v>
+        <v>0.8141004799925065</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6590909090909091</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2476172297777272</v>
+        <v>0.4820266647987472</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8119997199087456</v>
+        <v>0.8179434397503483</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1324</v>
+        <v>1049</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="C34" t="n">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="D34" t="n">
-        <v>4.067057208969925</v>
+        <v>1.212794494151614</v>
       </c>
       <c r="E34" t="n">
-        <v>3.406971438686922</v>
+        <v>0.6728522554310551</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6600857702830024</v>
+        <v>-0.5399422387205594</v>
       </c>
       <c r="G34" t="n">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="H34" t="n">
-        <v>30.61372488131542</v>
+        <v>37.81293582278576</v>
       </c>
       <c r="I34" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J34" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="K34" t="n">
-        <v>225.1746902592042</v>
+        <v>53.08316917629566</v>
       </c>
       <c r="L34" t="n">
-        <v>12.26993179461581</v>
+        <v>5.4642792471027</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.9014718378731991</v>
+        <v>0.5354475681447168</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.5</v>
       </c>
       <c r="R34" t="n">
-        <v>0.36286909623953</v>
+        <v>0.504583623635937</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8394750582718776</v>
+        <v>0.3197190761547912</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1325</v>
+        <v>1050</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="B35" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C35" t="n">
         <v>1183</v>
       </c>
       <c r="D35" t="n">
-        <v>1.875680824855221</v>
+        <v>1.199348484538274</v>
       </c>
       <c r="E35" t="n">
-        <v>1.215595054572219</v>
+        <v>0.6594062458177145</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6600857702830024</v>
+        <v>-0.5399422387205594</v>
       </c>
       <c r="G35" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H35" t="n">
-        <v>22.31514715395451</v>
+        <v>15.52879280229126</v>
       </c>
       <c r="I35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J35" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K35" t="n">
-        <v>70.737679233376</v>
+        <v>39.58574463232486</v>
       </c>
       <c r="L35" t="n">
-        <v>5.658753886885017</v>
+        <v>5.403697877677935</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7417636630571163</v>
+        <v>0.7279657241686943</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.75</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1935241049330644</v>
+        <v>0.3462449158494703</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7373085149001233</v>
+        <v>0.4819086849078089</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1326</v>
+        <v>1051</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>871</v>
       </c>
       <c r="C36" t="n">
-        <v>112</v>
+        <v>936</v>
       </c>
       <c r="D36" t="n">
-        <v>1.182888210113729</v>
+        <v>3.565964500216839</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6546457398649846</v>
+        <v>2.891547843838065</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5282424702487442</v>
+        <v>-0.674416656378774</v>
       </c>
       <c r="G36" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H36" t="n">
-        <v>24.20120200317738</v>
+        <v>143.1485710688127</v>
       </c>
       <c r="I36" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J36" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="K36" t="n">
-        <v>66.95471903209486</v>
+        <v>310.0593464698868</v>
       </c>
       <c r="L36" t="n">
-        <v>5.802534105282581</v>
+        <v>25.91742715989929</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8121651611076791</v>
+        <v>0.6461750559942849</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.154639175257732</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4749298155334483</v>
+        <v>0.1752602321313057</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8049805341038819</v>
+        <v>0.9593715999350853</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1327</v>
+        <v>1052</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>220</v>
+        <v>1104</v>
       </c>
       <c r="B37" t="n">
-        <v>254</v>
+        <v>1134</v>
       </c>
       <c r="C37" t="n">
-        <v>336</v>
+        <v>1183</v>
       </c>
       <c r="D37" t="n">
-        <v>5.086311992721229</v>
+        <v>0.4701237855742455</v>
       </c>
       <c r="E37" t="n">
-        <v>4.558069522472485</v>
+        <v>-0.2042928708045285</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5282424702487442</v>
+        <v>-0.674416656378774</v>
       </c>
       <c r="G37" t="n">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="H37" t="n">
-        <v>52.36888577113464</v>
+        <v>27.20955537652276</v>
       </c>
       <c r="I37" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K37" t="n">
-        <v>324.5760069416173</v>
+        <v>17.73246446626652</v>
       </c>
       <c r="L37" t="n">
-        <v>24.95037025099368</v>
+        <v>3.41685930076301</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8973973191709612</v>
+        <v>0.6904658067075197</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2533987989138007</v>
+        <v>0.4821687346937081</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9375243399477836</v>
+        <v>0.2940604208740583</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1328</v>
+        <v>1053</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="B38" t="n">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="C38" t="n">
-        <v>451</v>
+        <v>248</v>
       </c>
       <c r="D38" t="n">
-        <v>1.961050001326827</v>
+        <v>1.280515980813013</v>
       </c>
       <c r="E38" t="n">
-        <v>1.432807531078083</v>
+        <v>0.6532206699230412</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5282424702487442</v>
+        <v>-0.6272953108899721</v>
       </c>
       <c r="G38" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" t="n">
-        <v>26.87379298414891</v>
+        <v>56.07776768208456</v>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J38" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="K38" t="n">
-        <v>146.0977535052064</v>
+        <v>72.80480645723662</v>
       </c>
       <c r="L38" t="n">
-        <v>9.61972519260237</v>
+        <v>4.028117951818672</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7974627961973049</v>
+        <v>0.7245614927422646</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.173469387755102</v>
+        <v>0.78125</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3601696896016123</v>
+        <v>0.5595464463957113</v>
       </c>
       <c r="S38" t="n">
-        <v>0.6593174967016588</v>
+        <v>0.6995871081036671</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1329</v>
+        <v>1054</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>145</v>
+        <v>408</v>
       </c>
       <c r="B39" t="n">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="C39" t="n">
-        <v>285</v>
+        <v>468</v>
       </c>
       <c r="D39" t="n">
-        <v>1.22070986796366</v>
+        <v>2.648394108894406</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6893692986582348</v>
+        <v>2.021098798004433</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5313405693054251</v>
+        <v>-0.6272953108899721</v>
       </c>
       <c r="G39" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H39" t="n">
-        <v>37.55426780276545</v>
+        <v>17.12116090788453</v>
       </c>
       <c r="I39" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J39" t="n">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K39" t="n">
-        <v>51.90661828404772</v>
+        <v>109.2363462299926</v>
       </c>
       <c r="L39" t="n">
-        <v>5.471823555078843</v>
+        <v>8.331050930543729</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.5092852200246685</v>
+        <v>0.7743383120875963</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5190979195400501</v>
+        <v>0.458964177887291</v>
       </c>
       <c r="S39" t="n">
-        <v>0.2587302313910569</v>
+        <v>0.8746274488503594</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1330</v>
+        <v>1055</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1134</v>
+        <v>468</v>
       </c>
       <c r="B40" t="n">
-        <v>1152</v>
+        <v>495</v>
       </c>
       <c r="C40" t="n">
-        <v>1183</v>
+        <v>542</v>
       </c>
       <c r="D40" t="n">
-        <v>1.221954233412256</v>
+        <v>2.890140355543554</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6906136641068312</v>
+        <v>2.262845044653582</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5313405693054251</v>
+        <v>-0.6272953108899721</v>
       </c>
       <c r="G40" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="H40" t="n">
-        <v>12.76580821162793</v>
+        <v>119.4020573123272</v>
       </c>
       <c r="I40" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J40" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K40" t="n">
-        <v>39.77025237693812</v>
+        <v>145.5500195714588</v>
       </c>
       <c r="L40" t="n">
-        <v>5.477401414610785</v>
+        <v>9.091511877929918</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7307663919002778</v>
+        <v>0.6895334621354005</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3789773291547354</v>
+        <v>0.1101295801669664</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6241262637977361</v>
+        <v>0.9806353056867632</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1331</v>
+        <v>1056</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>124</v>
+        <v>931</v>
       </c>
       <c r="B41" t="n">
-        <v>174</v>
+        <v>959</v>
       </c>
       <c r="C41" t="n">
-        <v>283</v>
+        <v>1104</v>
       </c>
       <c r="D41" t="n">
-        <v>2.533383675463391</v>
+        <v>2.712232543784774</v>
       </c>
       <c r="E41" t="n">
-        <v>1.947548819776263</v>
+        <v>2.177509682683353</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5858348556871282</v>
+        <v>-0.5347228611014209</v>
       </c>
       <c r="G41" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H41" t="n">
-        <v>111.0907232678827</v>
+        <v>91.84802490365848</v>
       </c>
       <c r="I41" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J41" t="n">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="K41" t="n">
-        <v>216.5636242882582</v>
+        <v>209.4450943053457</v>
       </c>
       <c r="L41" t="n">
-        <v>6.323155942781029</v>
+        <v>10.6892800814471</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7442052738674384</v>
+        <v>0.8503345069434016</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4587155963302753</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6792846406297214</v>
+        <v>0.2803196963910812</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9140179279579544</v>
+        <v>0.700653676883656</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1332</v>
+        <v>1057</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>726</v>
+        <v>219</v>
       </c>
       <c r="B42" t="n">
-        <v>782</v>
+        <v>233</v>
       </c>
       <c r="C42" t="n">
-        <v>902</v>
+        <v>286</v>
       </c>
       <c r="D42" t="n">
-        <v>3.327978896107691</v>
+        <v>1.899913791675682</v>
       </c>
       <c r="E42" t="n">
-        <v>2.742144040420563</v>
+        <v>1.402746638575058</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5858348556871282</v>
+        <v>-0.4971671531006242</v>
       </c>
       <c r="G42" t="n">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="H42" t="n">
-        <v>108.3069270520612</v>
+        <v>15.41705780523569</v>
       </c>
       <c r="I42" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="J42" t="n">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K42" t="n">
-        <v>282.1463405059342</v>
+        <v>80.5430147545171</v>
       </c>
       <c r="L42" t="n">
-        <v>8.306412383637106</v>
+        <v>17.89898065046359</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8134906742921859</v>
+        <v>0.9130978570267534</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1986852702956619</v>
+        <v>0.3906110407889476</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8648384479476269</v>
+        <v>0.9887687227520046</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1333</v>
+        <v>1058</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="B43" t="n">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="C43" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D43" t="n">
-        <v>3.577959307308596</v>
+        <v>2.603583064575797</v>
       </c>
       <c r="E43" t="n">
-        <v>2.904631916557854</v>
+        <v>1.841737466744652</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6733273907507425</v>
+        <v>-0.7618455978311447</v>
       </c>
       <c r="G43" t="n">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="H43" t="n">
-        <v>142.7590403314874</v>
+        <v>54.2973195997007</v>
       </c>
       <c r="I43" t="n">
+        <v>38</v>
+      </c>
+      <c r="J43" t="n">
         <v>50</v>
       </c>
-      <c r="J43" t="n">
-        <v>65</v>
-      </c>
       <c r="K43" t="n">
-        <v>312.4531378934695</v>
+        <v>176.4538552834124</v>
       </c>
       <c r="L43" t="n">
-        <v>25.88021531454633</v>
+        <v>8.282042364033096</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.6421537263551548</v>
+        <v>0.6226196895524237</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.76</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1732996252270946</v>
+        <v>0.07834826937724111</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9579940636179833</v>
+        <v>0.8841564831569856</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1334</v>
+        <v>1059</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1104</v>
+        <v>932</v>
       </c>
       <c r="B44" t="n">
-        <v>1133</v>
+        <v>986</v>
       </c>
       <c r="C44" t="n">
-        <v>1183</v>
+        <v>1054</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4849654398826105</v>
+        <v>3.530905669180661</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.188361950868132</v>
+        <v>2.769060071349517</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6733273907507425</v>
+        <v>-0.7618455978311447</v>
       </c>
       <c r="G44" t="n">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H44" t="n">
-        <v>25.48949086312928</v>
+        <v>48.41851219088824</v>
       </c>
       <c r="I44" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K44" t="n">
-        <v>17.55461721099896</v>
+        <v>245.5740709358614</v>
       </c>
       <c r="L44" t="n">
-        <v>3.507868292028376</v>
+        <v>11.2318714672249</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.6920260763782722</v>
+        <v>0.6190097908065967</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.58</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4735645721293205</v>
+        <v>0.1000611308693526</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3049095962058581</v>
+        <v>0.8908447705505174</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1335</v>
+        <v>1060</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>135</v>
+        <v>1054</v>
       </c>
       <c r="B45" t="n">
-        <v>183</v>
+        <v>1071</v>
       </c>
       <c r="C45" t="n">
-        <v>247</v>
+        <v>1183</v>
       </c>
       <c r="D45" t="n">
-        <v>1.300957472458076</v>
+        <v>1.680680900002382</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6699795539155361</v>
+        <v>0.9188353021712373</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6309779185425402</v>
+        <v>-0.7618455978311447</v>
       </c>
       <c r="G45" t="n">
+        <v>129</v>
+      </c>
+      <c r="H45" t="n">
+        <v>30.99733018283132</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
+      <c r="J45" t="n">
         <v>112</v>
       </c>
-      <c r="H45" t="n">
-        <v>55.25909527098131</v>
-      </c>
-      <c r="I45" t="n">
-        <v>48</v>
-      </c>
-      <c r="J45" t="n">
-        <v>64</v>
-      </c>
       <c r="K45" t="n">
-        <v>73.15904769427571</v>
+        <v>145.9356662663706</v>
       </c>
       <c r="L45" t="n">
-        <v>4.080641860186681</v>
+        <v>5.346274756364997</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7287668582880096</v>
+        <v>0.7195859091122035</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.75</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="R45" t="n">
-        <v>0.6080574612766231</v>
+        <v>0.2095932051153349</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6899306393693596</v>
+        <v>0.3765276468112948</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1336</v>
+        <v>1061</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="B46" t="n">
-        <v>432</v>
+        <v>765</v>
       </c>
       <c r="C46" t="n">
-        <v>470</v>
+        <v>818</v>
       </c>
       <c r="D46" t="n">
-        <v>2.699462650298401</v>
+        <v>2.875159154546988</v>
       </c>
       <c r="E46" t="n">
-        <v>2.068484731755861</v>
+        <v>2.270917723918702</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6309779185425402</v>
+        <v>-0.6042414306282856</v>
       </c>
       <c r="G46" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H46" t="n">
-        <v>16.05773074527923</v>
+        <v>108.6229017026146</v>
       </c>
       <c r="I46" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J46" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K46" t="n">
-        <v>112.8204237835921</v>
+        <v>123.2224261656802</v>
       </c>
       <c r="L46" t="n">
-        <v>8.467256250894179</v>
+        <v>10.9213101906131</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7661786662802014</v>
+        <v>0.8615305048466049</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.631578947368421</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4713925050286363</v>
+        <v>0.3832645445461959</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8562419270832294</v>
+        <v>0.9220815436650818</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1337</v>
+        <v>1062</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>470</v>
+        <v>867</v>
       </c>
       <c r="B47" t="n">
-        <v>495</v>
+        <v>896</v>
       </c>
       <c r="C47" t="n">
-        <v>542</v>
+        <v>933</v>
       </c>
       <c r="D47" t="n">
-        <v>2.942789715528677</v>
+        <v>2.407394140373652</v>
       </c>
       <c r="E47" t="n">
-        <v>2.311811796986137</v>
+        <v>1.803152709745367</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6309779185425402</v>
+        <v>-0.6042414306282856</v>
       </c>
       <c r="G47" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H47" t="n">
-        <v>118.8274723704466</v>
+        <v>21.41958816692681</v>
       </c>
       <c r="I47" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J47" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K47" t="n">
-        <v>142.4801047039691</v>
+        <v>112.0374723403018</v>
       </c>
       <c r="L47" t="n">
-        <v>9.230486893798252</v>
+        <v>9.144501832709016</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7164504302600321</v>
+        <v>0.7892718013026108</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1258266868175887</v>
+        <v>0.3220337682820887</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9768954687982273</v>
+        <v>0.9765751211475894</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1338</v>
+        <v>1063</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>932</v>
+        <v>1049</v>
       </c>
       <c r="B48" t="n">
-        <v>959</v>
+        <v>1090</v>
       </c>
       <c r="C48" t="n">
-        <v>1104</v>
+        <v>1183</v>
       </c>
       <c r="D48" t="n">
-        <v>2.747497871545992</v>
+        <v>3.253778340277405</v>
       </c>
       <c r="E48" t="n">
-        <v>2.218192094476572</v>
+        <v>2.610550340733656</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5293057770694204</v>
+        <v>-0.6432279995437488</v>
       </c>
       <c r="G48" t="n">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="H48" t="n">
-        <v>91.58787437694741</v>
+        <v>41.68910928877472</v>
       </c>
       <c r="I48" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J48" t="n">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="K48" t="n">
-        <v>208.4689739312514</v>
+        <v>242.2227580113737</v>
       </c>
       <c r="L48" t="n">
-        <v>10.81832827426983</v>
+        <v>15.193313515277</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8432299615591923</v>
+        <v>0.8624767524153762</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1862068965517241</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2815140640043836</v>
+        <v>0.3101003676317737</v>
       </c>
       <c r="S48" t="n">
-        <v>0.6841616001387159</v>
+        <v>0.8812854212094585</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1339</v>
+        <v>1064</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4592,608 +4592,6 @@
         </is>
       </c>
       <c r="X48" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>219</v>
-      </c>
-      <c r="B49" t="n">
-        <v>234</v>
-      </c>
-      <c r="C49" t="n">
-        <v>286</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.910817626430164</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.414473402161969</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-0.4963442242681946</v>
-      </c>
-      <c r="G49" t="n">
-        <v>67</v>
-      </c>
-      <c r="H49" t="n">
-        <v>16.29622276367871</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15</v>
-      </c>
-      <c r="J49" t="n">
-        <v>52</v>
-      </c>
-      <c r="K49" t="n">
-        <v>80.62098683182549</v>
-      </c>
-      <c r="L49" t="n">
-        <v>17.91220014942307</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>0.9244110405308151</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.2884615384615384</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.4047599826167</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.9911384768454139</v>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U49" t="n">
-        <v>1340</v>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>844</v>
-      </c>
-      <c r="B50" t="n">
-        <v>881</v>
-      </c>
-      <c r="C50" t="n">
-        <v>931</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2.601079098339609</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1.835804615747168</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.7652744825924412</v>
-      </c>
-      <c r="G50" t="n">
-        <v>87</v>
-      </c>
-      <c r="H50" t="n">
-        <v>54.93603632757481</v>
-      </c>
-      <c r="I50" t="n">
-        <v>37</v>
-      </c>
-      <c r="J50" t="n">
-        <v>50</v>
-      </c>
-      <c r="K50" t="n">
-        <v>175.4594192791161</v>
-      </c>
-      <c r="L50" t="n">
-        <v>8.279151221533798</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>0.6150022013000257</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.07179110970138319</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.8633855137134269</v>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>1341</v>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>931</v>
-      </c>
-      <c r="B51" t="n">
-        <v>985</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1054</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.499723172387217</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2.734448689794776</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.7652744825924412</v>
-      </c>
-      <c r="G51" t="n">
-        <v>123</v>
-      </c>
-      <c r="H51" t="n">
-        <v>48.65509364498757</v>
-      </c>
-      <c r="I51" t="n">
-        <v>54</v>
-      </c>
-      <c r="J51" t="n">
-        <v>69</v>
-      </c>
-      <c r="K51" t="n">
-        <v>247.2666203176335</v>
-      </c>
-      <c r="L51" t="n">
-        <v>11.1395064441507</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>0.5798577895487633</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.08381591627476286</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.8815285987272848</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
-        <v>1342</v>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1071</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1153</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.709474358978014</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9441998763855726</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-0.7652744825924412</v>
-      </c>
-      <c r="G52" t="n">
-        <v>99</v>
-      </c>
-      <c r="H52" t="n">
-        <v>30.78315262253113</v>
-      </c>
-      <c r="I52" t="n">
-        <v>17</v>
-      </c>
-      <c r="J52" t="n">
-        <v>82</v>
-      </c>
-      <c r="K52" t="n">
-        <v>116.5397017062547</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.441201975114118</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>0.8236240691848205</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.2073170731707317</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.1509209599093932</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.8125850101735576</v>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U52" t="n">
-        <v>1343</v>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>746</v>
-      </c>
-      <c r="B53" t="n">
-        <v>764</v>
-      </c>
-      <c r="C53" t="n">
-        <v>818</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.940782352556948</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2.341536280434099</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.5992460721228491</v>
-      </c>
-      <c r="G53" t="n">
-        <v>72</v>
-      </c>
-      <c r="H53" t="n">
-        <v>106.2352119222318</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>54</v>
-      </c>
-      <c r="K53" t="n">
-        <v>122.8075818807039</v>
-      </c>
-      <c r="L53" t="n">
-        <v>11.09555974078179</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>0.865937518097725</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.3640631533942976</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.884302539984709</v>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U53" t="n">
-        <v>1344</v>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1049</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1183</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3.28329856885447</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2.62974790558661</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.6535506632678593</v>
-      </c>
-      <c r="G54" t="n">
-        <v>134</v>
-      </c>
-      <c r="H54" t="n">
-        <v>41.27244700288747</v>
-      </c>
-      <c r="I54" t="n">
-        <v>41</v>
-      </c>
-      <c r="J54" t="n">
-        <v>93</v>
-      </c>
-      <c r="K54" t="n">
-        <v>243.7052863965557</v>
-      </c>
-      <c r="L54" t="n">
-        <v>15.27093526613181</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>0.8606759261087749</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.4408602150537634</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.3071545836339739</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0.8800949110884895</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U54" t="n">
-        <v>1345</v>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>142</v>
-      </c>
-      <c r="B55" t="n">
-        <v>161</v>
-      </c>
-      <c r="C55" t="n">
-        <v>220</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.602763373613526</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.9488306421621229</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.6539327314514034</v>
-      </c>
-      <c r="G55" t="n">
-        <v>78</v>
-      </c>
-      <c r="H55" t="n">
-        <v>18.22385167211795</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>59</v>
-      </c>
-      <c r="K55" t="n">
-        <v>88.63982788009912</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.975777975785833</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>0.8469959245164573</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.3220338983050847</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.22987567424487</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0.7429691190510217</v>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>n36</t>
-        </is>
-      </c>
-      <c r="U55" t="n">
-        <v>1346</v>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>519</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>584</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>747</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
-        <v>2.242704997644315</v>
+        <v>2.289363068306635</v>
       </c>
       <c r="E2" t="n">
-        <v>1.503291620649155</v>
+        <v>1.738617541932197</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7394133769951603</v>
+        <v>-0.5507455263744379</v>
       </c>
       <c r="G2" t="n">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>97.2705364505199</v>
+        <v>51.4589219806478</v>
       </c>
       <c r="I2" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>349.0664716850341</v>
+        <v>110.9934666392257</v>
       </c>
       <c r="L2" t="n">
-        <v>6.125702424915858</v>
+        <v>4.424760836246001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7058968838569575</v>
+        <v>0.7077756846794596</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3987730061349693</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2215175047603053</v>
+        <v>0.147558053096533</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6214555972890079</v>
+        <v>0.816794097285228</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>537</v>
+        <v>1018</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>374</v>
+        <v>522</v>
       </c>
       <c r="B3" t="n">
-        <v>450</v>
+        <v>576</v>
       </c>
       <c r="C3" t="n">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="D3" t="n">
-        <v>2.460868349843982</v>
+        <v>2.234955894644874</v>
       </c>
       <c r="E3" t="n">
-        <v>1.583805645499762</v>
+        <v>1.489588973748864</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8770627043442203</v>
+        <v>-0.74536692089601</v>
       </c>
       <c r="G3" t="n">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="H3" t="n">
-        <v>103.4116910371771</v>
+        <v>105.8956070414932</v>
       </c>
       <c r="I3" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="J3" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
-        <v>288.5277807029983</v>
+        <v>220.0652230530986</v>
       </c>
       <c r="L3" t="n">
-        <v>7.510402491703154</v>
+        <v>6.1291356190352</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7254982477532146</v>
+        <v>0.5520363361471448</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.628099173553719</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3148262332321997</v>
+        <v>0.1844443214312318</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9300545023532812</v>
+        <v>0.9411242230019115</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>538</v>
+        <v>1019</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="B4" t="n">
-        <v>616</v>
+        <v>672</v>
       </c>
       <c r="C4" t="n">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="D4" t="n">
-        <v>2.606006406600458</v>
+        <v>1.715974510489667</v>
       </c>
       <c r="E4" t="n">
-        <v>1.728943702256238</v>
+        <v>0.9706075895936566</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8770627043442203</v>
+        <v>-0.74536692089601</v>
       </c>
       <c r="G4" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
-        <v>25.49709147225121</v>
+        <v>52.59377469965523</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5171391777696</v>
+        <v>130.9456066797237</v>
       </c>
       <c r="L4" t="n">
-        <v>7.953353949538718</v>
+        <v>4.7058827956289</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6518074535244204</v>
+        <v>0.8089346475114824</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="R4" t="n">
-        <v>0.491898040519423</v>
+        <v>0.1399583188045198</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4652409890694865</v>
+        <v>0.7794601060780114</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>539</v>
+        <v>1020</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>682</v>
+        <v>310</v>
       </c>
       <c r="B5" t="n">
-        <v>720</v>
+        <v>342</v>
       </c>
       <c r="C5" t="n">
-        <v>854</v>
+        <v>432</v>
       </c>
       <c r="D5" t="n">
-        <v>2.902481248357695</v>
+        <v>2.618386775194768</v>
       </c>
       <c r="E5" t="n">
-        <v>2.025418544013475</v>
+        <v>1.864278017909816</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8770627043442203</v>
+        <v>-0.754108757284952</v>
       </c>
       <c r="G5" t="n">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="H5" t="n">
-        <v>171.5250288022231</v>
+        <v>43.35376335978088</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>245.4716525750921</v>
+        <v>170.7175495181594</v>
       </c>
       <c r="L5" t="n">
-        <v>8.858174961358394</v>
+        <v>11.69931969679778</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.9127891581600794</v>
+        <v>0.9460378642655617</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2835820895522388</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5111342433020528</v>
+        <v>0.2364946334505787</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9377011950846349</v>
+        <v>0.9931922802830551</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>540</v>
+        <v>1021</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>969</v>
+        <v>432</v>
       </c>
       <c r="B6" t="n">
-        <v>1005</v>
+        <v>513</v>
       </c>
       <c r="C6" t="n">
-        <v>1183</v>
+        <v>641</v>
       </c>
       <c r="D6" t="n">
-        <v>1.819583755551731</v>
+        <v>3.464737663945207</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9425210512075106</v>
+        <v>2.710628906660255</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8770627043442203</v>
+        <v>-0.754108757284952</v>
       </c>
       <c r="G6" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H6" t="n">
-        <v>123.4472855888325</v>
+        <v>236.4651355230665</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J6" t="n">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="K6" t="n">
-        <v>204.8031825860624</v>
+        <v>433.5108789537794</v>
       </c>
       <c r="L6" t="n">
-        <v>5.553245614469668</v>
+        <v>15.480934283674</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8822385458546872</v>
+        <v>0.6734474699165883</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2022471910112359</v>
+        <v>0.6328125</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3626886725065336</v>
+        <v>0.6959125224259572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8557741467261704</v>
+        <v>0.9200549423853297</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>541</v>
+        <v>1022</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>996</v>
+        <v>376</v>
       </c>
       <c r="B7" t="n">
-        <v>1034</v>
+        <v>444</v>
       </c>
       <c r="C7" t="n">
-        <v>1183</v>
+        <v>576</v>
       </c>
       <c r="D7" t="n">
-        <v>4.340573189787837</v>
+        <v>2.466315640402821</v>
       </c>
       <c r="E7" t="n">
-        <v>3.87731070993254</v>
+        <v>1.608584888208909</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4632624798552973</v>
+        <v>-0.8577307521939126</v>
       </c>
       <c r="G7" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H7" t="n">
-        <v>36.46718266796358</v>
+        <v>102.1941438007221</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J7" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K7" t="n">
-        <v>434.7010097163757</v>
+        <v>288.3630948184253</v>
       </c>
       <c r="L7" t="n">
-        <v>19.32389393294487</v>
+        <v>7.509382381912874</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8709828348711579</v>
+        <v>0.7082843053340686</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2550335570469799</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2541984110106993</v>
+        <v>0.3085757534102792</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8995046923841402</v>
+        <v>0.9048909807667155</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>542</v>
+        <v>1023</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>997</v>
+        <v>576</v>
       </c>
       <c r="B8" t="n">
-        <v>1040</v>
+        <v>611</v>
       </c>
       <c r="C8" t="n">
-        <v>1183</v>
+        <v>686</v>
       </c>
       <c r="D8" t="n">
-        <v>4.831493662304665</v>
+        <v>2.640824635725086</v>
       </c>
       <c r="E8" t="n">
-        <v>4.397643950843478</v>
+        <v>1.783093883531174</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4338497114611868</v>
+        <v>-0.8577307521939126</v>
       </c>
       <c r="G8" t="n">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="H8" t="n">
-        <v>66.92080291390994</v>
+        <v>31.40133488911886</v>
       </c>
       <c r="I8" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="K8" t="n">
-        <v>374.4185387922728</v>
+        <v>221.9068549065102</v>
       </c>
       <c r="L8" t="n">
-        <v>27.06513355233886</v>
+        <v>8.040723445275022</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.9654077198900674</v>
+        <v>0.7291248734065626</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3006993006993007</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3200858091873694</v>
+        <v>0.5029429258725451</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9450738585512423</v>
+        <v>0.3799860847342929</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>543</v>
+        <v>1024</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>482</v>
+        <v>686</v>
       </c>
       <c r="B9" t="n">
-        <v>519</v>
+        <v>714</v>
       </c>
       <c r="C9" t="n">
-        <v>589</v>
+        <v>858</v>
       </c>
       <c r="D9" t="n">
-        <v>3.433624408536839</v>
+        <v>2.969590990341454</v>
       </c>
       <c r="E9" t="n">
-        <v>2.866563824364523</v>
+        <v>2.111860238147541</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5670605841723162</v>
+        <v>-0.8577307521939126</v>
       </c>
       <c r="G9" t="n">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="H9" t="n">
-        <v>147.7681107935373</v>
+        <v>170.0639280810057</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="K9" t="n">
-        <v>247.9891132273662</v>
+        <v>235.3939742295529</v>
       </c>
       <c r="L9" t="n">
-        <v>19.63916571386541</v>
+        <v>9.04174384618309</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7954047212812516</v>
+        <v>0.8673676946372731</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2052606947242882</v>
+        <v>0.4883791408958802</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9891071256630577</v>
+        <v>0.9211711990691661</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>544</v>
+        <v>1025</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="B10" t="n">
-        <v>86</v>
+        <v>660</v>
       </c>
       <c r="C10" t="n">
-        <v>307</v>
+        <v>728</v>
       </c>
       <c r="D10" t="n">
-        <v>4.550811211691025</v>
+        <v>2.754758986544506</v>
       </c>
       <c r="E10" t="n">
-        <v>4.030531664308898</v>
+        <v>1.838944073181232</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5202795473821276</v>
+        <v>-0.9158149133632744</v>
       </c>
       <c r="G10" t="n">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="H10" t="n">
-        <v>72.40638864859679</v>
+        <v>44.57414763781878</v>
       </c>
       <c r="I10" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="J10" t="n">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="K10" t="n">
-        <v>472.4842198822391</v>
+        <v>192.3195292749051</v>
       </c>
       <c r="L10" t="n">
-        <v>18.20259967949207</v>
+        <v>6.361132751505865</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.651594419831784</v>
+        <v>0.8375397865733738</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3891402714932127</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R10" t="n">
-        <v>0.169911113566311</v>
+        <v>0.2563480630836089</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9223636509173363</v>
+        <v>0.9919584818479886</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>545</v>
+        <v>1026</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>765</v>
+        <v>222</v>
       </c>
       <c r="B11" t="n">
-        <v>814</v>
+        <v>250</v>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>331</v>
       </c>
       <c r="D11" t="n">
-        <v>2.6306051076435</v>
+        <v>0.6413275668543925</v>
       </c>
       <c r="E11" t="n">
-        <v>1.967362307873731</v>
+        <v>0.03724234867913053</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6632427997697689</v>
+        <v>-0.604085218175262</v>
       </c>
       <c r="G11" t="n">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="H11" t="n">
-        <v>48.18730183717707</v>
+        <v>28.4593542885969</v>
       </c>
       <c r="I11" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="K11" t="n">
-        <v>224.6920795191133</v>
+        <v>28.17546747372733</v>
       </c>
       <c r="L11" t="n">
-        <v>8.711145665701631</v>
+        <v>3.365759611157262</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8704880183741178</v>
+        <v>0.764182485059536</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3740458015267176</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3440969627269431</v>
+        <v>0.5228762756935699</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8855020000416249</v>
+        <v>0.3562133890131546</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>546</v>
+        <v>1027</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>450</v>
+        <v>331</v>
       </c>
       <c r="B12" t="n">
-        <v>525</v>
+        <v>390</v>
       </c>
       <c r="C12" t="n">
-        <v>639</v>
+        <v>565</v>
       </c>
       <c r="D12" t="n">
-        <v>2.867158980934032</v>
+        <v>3.394014211412772</v>
       </c>
       <c r="E12" t="n">
-        <v>2.261791283133937</v>
+        <v>2.789928993237511</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6053676978000946</v>
+        <v>-0.604085218175262</v>
       </c>
       <c r="G12" t="n">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="H12" t="n">
-        <v>68.60231803612527</v>
+        <v>98.65719314740841</v>
       </c>
       <c r="I12" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J12" t="n">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="K12" t="n">
-        <v>251.8928604768961</v>
+        <v>346.204954225947</v>
       </c>
       <c r="L12" t="n">
-        <v>12.98818676329546</v>
+        <v>17.8121704770886</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7266207939483743</v>
+        <v>0.9464726848683602</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.3371428571428571</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6598177096035137</v>
+        <v>0.4442446755684927</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9297728921615177</v>
+        <v>0.9578501361419253</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>547</v>
+        <v>1028</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,73 +1503,73 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B13" t="n">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="C13" t="n">
-        <v>173</v>
+        <v>400</v>
       </c>
       <c r="D13" t="n">
-        <v>2.520599124750153</v>
+        <v>1.208098783828986</v>
       </c>
       <c r="E13" t="n">
-        <v>1.969944329795317</v>
+        <v>0.5248107770522586</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5506547949548353</v>
+        <v>-0.6832880067767271</v>
       </c>
       <c r="G13" t="n">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="H13" t="n">
-        <v>51.20060982392019</v>
+        <v>63.10835335342816</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="J13" t="n">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="K13" t="n">
-        <v>143.5843666685877</v>
+        <v>169.9000101425569</v>
       </c>
       <c r="L13" t="n">
-        <v>6.17314549342826</v>
+        <v>3.922695411424155</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(362), 'value': np.float64(0.28626326878574765), 'amplitude': np.float64(0.9695512755624747), 'start_idx': np.int64(347), 'end_idx': np.int64(399), 'duration': np.float64(52.0), 'fwhm': np.float64(26.090729044817238), 'rise_time': np.float64(15.0), 'decay_time': np.float64(37.0), 'auc': np.float64(36.08812256151378)}]</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9013092536092521</v>
+        <v>0.4731591217176631</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4186046511627907</v>
+        <v>0.6257668711656442</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2517922202148995</v>
+        <v>0.5518863647654798</v>
       </c>
       <c r="S13" t="n">
-        <v>0.920353398649029</v>
+        <v>0.3234611865492385</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>548</v>
+        <v>1029</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1071</v>
+        <v>1033</v>
       </c>
       <c r="B14" t="n">
-        <v>1106</v>
+        <v>1065</v>
       </c>
       <c r="C14" t="n">
-        <v>1183</v>
+        <v>1107</v>
       </c>
       <c r="D14" t="n">
-        <v>2.789640205604675</v>
+        <v>3.036557519221138</v>
       </c>
       <c r="E14" t="n">
-        <v>2.088958885188932</v>
+        <v>2.353269512444411</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7006813204157428</v>
+        <v>-0.6832880067767271</v>
       </c>
       <c r="G14" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="H14" t="n">
-        <v>39.11165206370674</v>
+        <v>35.21660712331072</v>
       </c>
       <c r="I14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
-        <v>240.2542552315102</v>
+        <v>173.8601368809392</v>
       </c>
       <c r="L14" t="n">
-        <v>9.600106289221058</v>
+        <v>9.859698897652747</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8735549852633289</v>
+        <v>0.7388936211549988</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1909659702710118</v>
+        <v>0.7314968244154754</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9932278846746314</v>
+        <v>0.7308284895981204</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>549</v>
+        <v>1030</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>121</v>
+        <v>1107</v>
       </c>
       <c r="B15" t="n">
-        <v>157</v>
+        <v>1129</v>
       </c>
       <c r="C15" t="n">
-        <v>334</v>
+        <v>1183</v>
       </c>
       <c r="D15" t="n">
-        <v>3.15433933482565</v>
+        <v>3.421912636503011</v>
       </c>
       <c r="E15" t="n">
-        <v>2.45466257005402</v>
+        <v>2.738624629726284</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6996767647716299</v>
+        <v>-0.6832880067767271</v>
       </c>
       <c r="G15" t="n">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="H15" t="n">
-        <v>63.91525716725496</v>
+        <v>23.76798482494678</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="K15" t="n">
-        <v>223.1921972213528</v>
+        <v>218.37160960653</v>
       </c>
       <c r="L15" t="n">
-        <v>12.43299266154283</v>
+        <v>11.1109465361442</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8672800910738784</v>
+        <v>0.6227422270246565</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5078797669503975</v>
+        <v>0.07873490958604722</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7587526060360965</v>
+        <v>0.3078417990624461</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>550</v>
+        <v>1031</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>808</v>
+        <v>1067</v>
       </c>
       <c r="B16" t="n">
-        <v>860</v>
+        <v>1094</v>
       </c>
       <c r="C16" t="n">
-        <v>929</v>
+        <v>1183</v>
       </c>
       <c r="D16" t="n">
-        <v>3.071570343008486</v>
+        <v>3.16090828409573</v>
       </c>
       <c r="E16" t="n">
-        <v>2.371893578236857</v>
+        <v>2.681297403336384</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6996767647716299</v>
+        <v>-0.4796108807593464</v>
       </c>
       <c r="G16" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H16" t="n">
-        <v>99.68305869851588</v>
+        <v>24.52620944859177</v>
       </c>
       <c r="I16" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K16" t="n">
-        <v>257.4193798725526</v>
+        <v>237.0096670732863</v>
       </c>
       <c r="L16" t="n">
-        <v>12.10675437243277</v>
+        <v>13.24080615371841</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7426214412609881</v>
+        <v>0.8645481279902991</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7536231884057971</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2155519591295472</v>
+        <v>0.3260801749611214</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9230656091402545</v>
+        <v>0.829599058429784</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>551</v>
+        <v>1032</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="C17" t="n">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="D17" t="n">
-        <v>3.814802271991101</v>
+        <v>1.050382515205428</v>
       </c>
       <c r="E17" t="n">
-        <v>3.200342966876563</v>
+        <v>0.6142452158091759</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6144593051145387</v>
+        <v>-0.4361372993962525</v>
       </c>
       <c r="G17" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H17" t="n">
-        <v>31.12744608083094</v>
+        <v>35.68508060528731</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K17" t="n">
-        <v>218.4219762830889</v>
+        <v>42.60195515705574</v>
       </c>
       <c r="L17" t="n">
-        <v>11.76360500421216</v>
+        <v>6.019944806466358</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.9552563459238534</v>
+        <v>0.8277494756484246</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2753623188405797</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3498431237313152</v>
+        <v>0.2624776785301478</v>
       </c>
       <c r="S17" t="n">
-        <v>0.871795209225329</v>
+        <v>0.9119637988139313</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>552</v>
+        <v>1033</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>1038</v>
       </c>
       <c r="C18" t="n">
-        <v>112</v>
+        <v>1183</v>
       </c>
       <c r="D18" t="n">
-        <v>1.14760538119096</v>
+        <v>4.772747493904462</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6401648718629177</v>
+        <v>4.33661019450821</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5074405093280426</v>
+        <v>-0.4361372993962525</v>
       </c>
       <c r="G18" t="n">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="H18" t="n">
-        <v>25.15117528944786</v>
+        <v>67.10505750686514</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K18" t="n">
-        <v>65.299137166658</v>
+        <v>373.8631383007365</v>
       </c>
       <c r="L18" t="n">
-        <v>5.907954391848929</v>
+        <v>27.35353651891882</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8393958994674976</v>
+        <v>0.968577299040372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.154639175257732</v>
+        <v>0.2620689655172414</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4755287968593138</v>
+        <v>0.3338032089822258</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9091774053943252</v>
+        <v>0.9383782806124934</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>553</v>
+        <v>1034</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>830</v>
+        <v>487</v>
       </c>
       <c r="B19" t="n">
-        <v>872</v>
+        <v>517</v>
       </c>
       <c r="C19" t="n">
-        <v>938</v>
+        <v>594</v>
       </c>
       <c r="D19" t="n">
-        <v>3.444652679896646</v>
+        <v>3.75539100048907</v>
       </c>
       <c r="E19" t="n">
-        <v>2.766616837690701</v>
+        <v>3.17515351815273</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6780358422059449</v>
+        <v>-0.5802374823363408</v>
       </c>
       <c r="G19" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" t="n">
-        <v>145.3604774318503</v>
+        <v>77.44039755896705</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K19" t="n">
-        <v>292.4268425119417</v>
+        <v>244.328783064313</v>
       </c>
       <c r="L19" t="n">
-        <v>26.54936178767733</v>
+        <v>21.20280447654227</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7608352495099417</v>
+        <v>0.8828272585707</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2053532150802192</v>
+        <v>0.2336334620439727</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9795299179897491</v>
+        <v>0.9875039909915652</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>554</v>
+        <v>1035</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>463</v>
+        <v>1072</v>
       </c>
       <c r="B20" t="n">
-        <v>503</v>
+        <v>1094</v>
       </c>
       <c r="C20" t="n">
-        <v>557</v>
+        <v>1130</v>
       </c>
       <c r="D20" t="n">
-        <v>2.530066134650495</v>
+        <v>0.7985866720197963</v>
       </c>
       <c r="E20" t="n">
-        <v>1.914974896776318</v>
+        <v>0.2183491896834555</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6150912378741772</v>
+        <v>-0.5802374823363408</v>
       </c>
       <c r="G20" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="H20" t="n">
-        <v>33.51199293774295</v>
+        <v>31.52530565839197</v>
       </c>
       <c r="I20" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K20" t="n">
-        <v>174.672220473696</v>
+        <v>26.32986773269195</v>
       </c>
       <c r="L20" t="n">
-        <v>8.130760775626754</v>
+        <v>4.508792043812006</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7683387632710925</v>
+        <v>0.7388234624717208</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2371527648382714</v>
+        <v>0.1700137986630635</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7708248428383002</v>
+        <v>0.8226163578919852</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>555</v>
+        <v>1036</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>962</v>
+        <v>89</v>
       </c>
       <c r="C21" t="n">
-        <v>1183</v>
+        <v>315</v>
       </c>
       <c r="D21" t="n">
-        <v>2.463375902250305</v>
+        <v>4.63749504322154</v>
       </c>
       <c r="E21" t="n">
-        <v>1.890026575981482</v>
+        <v>4.119507188878639</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5733493262688237</v>
+        <v>-0.5179878543429012</v>
       </c>
       <c r="G21" t="n">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="H21" t="n">
-        <v>92.71819444646962</v>
+        <v>70.5989268306503</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="J21" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K21" t="n">
-        <v>264.1708688267474</v>
+        <v>472.3379025401325</v>
       </c>
       <c r="L21" t="n">
-        <v>9.596093550927877</v>
+        <v>18.35259528907162</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7963702011794677</v>
+        <v>0.6753683707572631</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.167420814479638</v>
+        <v>0.3938053097345133</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4601948939453055</v>
+        <v>0.2532672125862311</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3825721429181229</v>
+        <v>0.9141888276328405</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>556</v>
+        <v>1037</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>941</v>
+        <v>770</v>
       </c>
       <c r="B22" t="n">
-        <v>990</v>
+        <v>817</v>
       </c>
       <c r="C22" t="n">
-        <v>1183</v>
+        <v>952</v>
       </c>
       <c r="D22" t="n">
-        <v>3.529703176040317</v>
+        <v>2.797178431254184</v>
       </c>
       <c r="E22" t="n">
-        <v>2.751903264502028</v>
+        <v>2.146942655604514</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7777999115382894</v>
+        <v>-0.6502357756496699</v>
       </c>
       <c r="G22" t="n">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="H22" t="n">
-        <v>49.34510347411913</v>
+        <v>53.49914004440018</v>
       </c>
       <c r="I22" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J22" t="n">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="K22" t="n">
-        <v>382.538725194676</v>
+        <v>226.5498617218531</v>
       </c>
       <c r="L22" t="n">
-        <v>11.30219772143988</v>
+        <v>9.173098039079941</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8077072408265985</v>
+        <v>0.888510989654388</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2538860103626943</v>
+        <v>0.3481481481481482</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4231794280410199</v>
+        <v>0.3627764113982382</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5949093075046639</v>
+        <v>0.8505892384526045</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>557</v>
+        <v>1038</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,85 +2363,2235 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>491</v>
+      </c>
+      <c r="B23" t="n">
+        <v>519</v>
+      </c>
+      <c r="C23" t="n">
+        <v>644</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.200280283536502</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.590130111472835</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.6101501720636674</v>
+      </c>
+      <c r="G23" t="n">
+        <v>153</v>
+      </c>
+      <c r="H23" t="n">
+        <v>65.19596867126211</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>125</v>
+      </c>
+      <c r="K23" t="n">
+        <v>247.0466945918747</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14.28438254594278</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0.9279611532001815</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.2671610001403669</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.8776783851613442</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>1039</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>48</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89</v>
+      </c>
+      <c r="C24" t="n">
+        <v>177</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.872926969762361</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.325869325714033</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.5470576440483277</v>
+      </c>
+      <c r="G24" t="n">
+        <v>129</v>
+      </c>
+      <c r="H24" t="n">
+        <v>40.31490280039077</v>
+      </c>
+      <c r="I24" t="n">
+        <v>41</v>
+      </c>
+      <c r="J24" t="n">
+        <v>88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>143.4262767222835</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.991877479916791</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8630245148471283</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4659090909090909</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.2914272507408853</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9257030742140449</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>1040</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>822</v>
+      </c>
+      <c r="B25" t="n">
+        <v>842</v>
+      </c>
+      <c r="C25" t="n">
+        <v>896</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.734934679408297</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.18787703535997</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.5470576440483277</v>
+      </c>
+      <c r="G25" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>34.74146379398508</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" t="n">
+        <v>54</v>
+      </c>
+      <c r="K25" t="n">
+        <v>68.31422579285147</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.222331734065946</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0.9125524198207877</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2109777797951369</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.9739851667125772</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>1041</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1102</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.898048477380299</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.18452199683388</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.7135264805464191</v>
+      </c>
+      <c r="G26" t="n">
+        <v>118</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36.04563843089159</v>
+      </c>
+      <c r="I26" t="n">
+        <v>37</v>
+      </c>
+      <c r="J26" t="n">
+        <v>81</v>
+      </c>
+      <c r="K26" t="n">
+        <v>254.1213056510625</v>
+      </c>
+      <c r="L26" t="n">
+        <v>9.910493520310958</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0.807089440356543</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4567901234567901</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.142608047563285</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.9909674228133724</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>1042</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>660</v>
+      </c>
+      <c r="B27" t="n">
+        <v>690</v>
+      </c>
+      <c r="C27" t="n">
+        <v>762</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.959231406913241</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.182685110410592</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.7765462965026488</v>
+      </c>
+      <c r="G27" t="n">
+        <v>102</v>
+      </c>
+      <c r="H27" t="n">
+        <v>43.97248457953583</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" t="n">
+        <v>72</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.1170580876826</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.396901124821468</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0.7371296822081432</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1004587245321562</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.6807855082125531</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>1043</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>125</v>
+      </c>
+      <c r="B28" t="n">
+        <v>153</v>
+      </c>
+      <c r="C28" t="n">
+        <v>341</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.376348244083546</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.685096665002089</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.6912515790814575</v>
+      </c>
+      <c r="G28" t="n">
+        <v>216</v>
+      </c>
+      <c r="H28" t="n">
+        <v>52.81152439662273</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>188</v>
+      </c>
+      <c r="K28" t="n">
+        <v>222.6271847852149</v>
+      </c>
+      <c r="L28" t="n">
+        <v>13.28493619471602</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8142571230386967</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.148936170212766</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.5268945379590833</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.7595753960122328</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>1044</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>643</v>
+      </c>
+      <c r="B29" t="n">
+        <v>669</v>
+      </c>
+      <c r="C29" t="n">
+        <v>744</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.410369304969392</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7191177258879343</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.6912515790814575</v>
+      </c>
+      <c r="G29" t="n">
+        <v>101</v>
+      </c>
+      <c r="H29" t="n">
+        <v>38.71359964261376</v>
+      </c>
+      <c r="I29" t="n">
+        <v>26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>76.0064376288274</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.549387940161994</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0.9548860133846779</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3466666666666667</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.2927641999923384</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.9564311320731634</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>1045</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>744</v>
+      </c>
+      <c r="B30" t="n">
+        <v>773</v>
+      </c>
+      <c r="C30" t="n">
+        <v>816</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.862983435729116</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.171731856647659</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.6912515790814575</v>
+      </c>
+      <c r="G30" t="n">
+        <v>72</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23.6235652785299</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29</v>
+      </c>
+      <c r="J30" t="n">
+        <v>43</v>
+      </c>
+      <c r="K30" t="n">
+        <v>82.70132931412837</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.330291275150151</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7871845159741689</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.2236848127386638</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.8456317265335327</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1046</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>93</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.075272619956618</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.417904894458566</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.6573677254980514</v>
+      </c>
+      <c r="G31" t="n">
+        <v>93</v>
+      </c>
+      <c r="H31" t="n">
+        <v>31.87484705383226</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16</v>
+      </c>
+      <c r="J31" t="n">
+        <v>77</v>
+      </c>
+      <c r="K31" t="n">
+        <v>225.1196231886676</v>
+      </c>
+      <c r="L31" t="n">
+        <v>12.23600441164614</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9082609593338982</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.3644694549403687</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.8409309364101325</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1047</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.836534388875715</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.179166663377664</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.6573677254980514</v>
+      </c>
+      <c r="G32" t="n">
+        <v>56</v>
+      </c>
+      <c r="H32" t="n">
+        <v>24.35459112152989</v>
+      </c>
+      <c r="I32" t="n">
+        <v>24</v>
+      </c>
+      <c r="J32" t="n">
+        <v>32</v>
+      </c>
+      <c r="K32" t="n">
+        <v>70.17111769660889</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.514193768136748</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6987752660385723</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1850690939197269</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.6331751875606509</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
         <v>1048</v>
       </c>
-      <c r="B23" t="n">
-        <v>1089</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>113</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.181462888552892</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6580778770520731</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.5233850115008192</v>
+      </c>
+      <c r="G33" t="n">
+        <v>113</v>
+      </c>
+      <c r="H33" t="n">
+        <v>24.36582596920021</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>98</v>
+      </c>
+      <c r="K33" t="n">
+        <v>66.59279773989664</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.833866182869785</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8141004799925065</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.1530612244897959</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.4820266647987472</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8179434397503483</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>1049</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>145</v>
+      </c>
+      <c r="B34" t="n">
+        <v>192</v>
+      </c>
+      <c r="C34" t="n">
+        <v>286</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.212794494151614</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6728522554310551</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.5399422387205594</v>
+      </c>
+      <c r="G34" t="n">
+        <v>141</v>
+      </c>
+      <c r="H34" t="n">
+        <v>37.81293582278576</v>
+      </c>
+      <c r="I34" t="n">
+        <v>47</v>
+      </c>
+      <c r="J34" t="n">
+        <v>94</v>
+      </c>
+      <c r="K34" t="n">
+        <v>53.08316917629566</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.4642792471027</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.5354475681447168</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.504583623635937</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.3197190761547912</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1050</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C35" t="n">
         <v>1183</v>
       </c>
-      <c r="D23" t="n">
-        <v>3.053666153422684</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.399523582815554</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.6541425706071298</v>
-      </c>
-      <c r="G23" t="n">
-        <v>135</v>
-      </c>
-      <c r="H23" t="n">
-        <v>43.40029388732637</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="D35" t="n">
+        <v>1.199348484538274</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6594062458177145</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.5399422387205594</v>
+      </c>
+      <c r="G35" t="n">
+        <v>49</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.52879280229126</v>
+      </c>
+      <c r="I35" t="n">
+        <v>18</v>
+      </c>
+      <c r="J35" t="n">
+        <v>31</v>
+      </c>
+      <c r="K35" t="n">
+        <v>39.58574463232486</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.403697877677935</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7279657241686943</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.3462449158494703</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.4819086849078089</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1051</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>822</v>
+      </c>
+      <c r="B36" t="n">
+        <v>871</v>
+      </c>
+      <c r="C36" t="n">
+        <v>936</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.565964500216839</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.891547843838065</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.674416656378774</v>
+      </c>
+      <c r="G36" t="n">
+        <v>114</v>
+      </c>
+      <c r="H36" t="n">
+        <v>143.1485710688127</v>
+      </c>
+      <c r="I36" t="n">
+        <v>49</v>
+      </c>
+      <c r="J36" t="n">
+        <v>65</v>
+      </c>
+      <c r="K36" t="n">
+        <v>310.0593464698868</v>
+      </c>
+      <c r="L36" t="n">
+        <v>25.91742715989929</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.6461750559942849</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7538461538461538</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1752602321313057</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9593715999350853</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1052</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4701237855742455</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.2042928708045285</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.674416656378774</v>
+      </c>
+      <c r="G37" t="n">
+        <v>79</v>
+      </c>
+      <c r="H37" t="n">
+        <v>27.20955537652276</v>
+      </c>
+      <c r="I37" t="n">
+        <v>30</v>
+      </c>
+      <c r="J37" t="n">
+        <v>49</v>
+      </c>
+      <c r="K37" t="n">
+        <v>17.73246446626652</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.41685930076301</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6904658067075197</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.4821687346937081</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.2940604208740583</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1053</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>134</v>
+      </c>
+      <c r="B38" t="n">
+        <v>184</v>
+      </c>
+      <c r="C38" t="n">
+        <v>248</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.280515980813013</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6532206699230412</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.6272953108899721</v>
+      </c>
+      <c r="G38" t="n">
+        <v>114</v>
+      </c>
+      <c r="H38" t="n">
+        <v>56.07776768208456</v>
+      </c>
+      <c r="I38" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" t="n">
+        <v>64</v>
+      </c>
+      <c r="K38" t="n">
+        <v>72.80480645723662</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.028117951818672</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7245614927422646</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.5595464463957113</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6995871081036671</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1054</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>408</v>
+      </c>
+      <c r="B39" t="n">
+        <v>432</v>
+      </c>
+      <c r="C39" t="n">
+        <v>468</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.648394108894406</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.021098798004433</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.6272953108899721</v>
+      </c>
+      <c r="G39" t="n">
+        <v>60</v>
+      </c>
+      <c r="H39" t="n">
+        <v>17.12116090788453</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24</v>
+      </c>
+      <c r="J39" t="n">
+        <v>36</v>
+      </c>
+      <c r="K39" t="n">
+        <v>109.2363462299926</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.331050930543729</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.7743383120875963</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.458964177887291</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8746274488503594</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1055</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>468</v>
+      </c>
+      <c r="B40" t="n">
+        <v>495</v>
+      </c>
+      <c r="C40" t="n">
+        <v>542</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.890140355543554</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.262845044653582</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.6272953108899721</v>
+      </c>
+      <c r="G40" t="n">
+        <v>74</v>
+      </c>
+      <c r="H40" t="n">
+        <v>119.4020573123272</v>
+      </c>
+      <c r="I40" t="n">
+        <v>27</v>
+      </c>
+      <c r="J40" t="n">
+        <v>47</v>
+      </c>
+      <c r="K40" t="n">
+        <v>145.5500195714588</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.091511877929918</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.6895334621354005</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1101295801669664</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9806353056867632</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1056</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>931</v>
+      </c>
+      <c r="B41" t="n">
+        <v>959</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.712232543784774</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.177509682683353</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5347228611014209</v>
+      </c>
+      <c r="G41" t="n">
+        <v>173</v>
+      </c>
+      <c r="H41" t="n">
+        <v>91.84802490365848</v>
+      </c>
+      <c r="I41" t="n">
+        <v>28</v>
+      </c>
+      <c r="J41" t="n">
+        <v>145</v>
+      </c>
+      <c r="K41" t="n">
+        <v>209.4450943053457</v>
+      </c>
+      <c r="L41" t="n">
+        <v>10.6892800814471</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8503345069434016</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.1931034482758621</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2803196963910812</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.700653676883656</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1057</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>219</v>
+      </c>
+      <c r="B42" t="n">
+        <v>233</v>
+      </c>
+      <c r="C42" t="n">
+        <v>286</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.899913791675682</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.402746638575058</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.4971671531006242</v>
+      </c>
+      <c r="G42" t="n">
+        <v>67</v>
+      </c>
+      <c r="H42" t="n">
+        <v>15.41705780523569</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>53</v>
+      </c>
+      <c r="K42" t="n">
+        <v>80.5430147545171</v>
+      </c>
+      <c r="L42" t="n">
+        <v>17.89898065046359</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.9130978570267534</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2641509433962264</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.3906110407889476</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9887687227520046</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1058</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>844</v>
+      </c>
+      <c r="B43" t="n">
+        <v>882</v>
+      </c>
+      <c r="C43" t="n">
+        <v>932</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.603583064575797</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.841737466744652</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.7618455978311447</v>
+      </c>
+      <c r="G43" t="n">
+        <v>88</v>
+      </c>
+      <c r="H43" t="n">
+        <v>54.2973195997007</v>
+      </c>
+      <c r="I43" t="n">
+        <v>38</v>
+      </c>
+      <c r="J43" t="n">
+        <v>50</v>
+      </c>
+      <c r="K43" t="n">
+        <v>176.4538552834124</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.282042364033096</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6226196895524237</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.07834826937724111</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8841564831569856</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1059</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>932</v>
+      </c>
+      <c r="B44" t="n">
+        <v>986</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1054</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.530905669180661</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.769060071349517</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.7618455978311447</v>
+      </c>
+      <c r="G44" t="n">
+        <v>122</v>
+      </c>
+      <c r="H44" t="n">
+        <v>48.41851219088824</v>
+      </c>
+      <c r="I44" t="n">
+        <v>54</v>
+      </c>
+      <c r="J44" t="n">
+        <v>68</v>
+      </c>
+      <c r="K44" t="n">
+        <v>245.5740709358614</v>
+      </c>
+      <c r="L44" t="n">
+        <v>11.2318714672249</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6190097908065967</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1000611308693526</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8908447705505174</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1060</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.680680900002382</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9188353021712373</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.7618455978311447</v>
+      </c>
+      <c r="G45" t="n">
+        <v>129</v>
+      </c>
+      <c r="H45" t="n">
+        <v>30.99733018283132</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
+      <c r="J45" t="n">
+        <v>112</v>
+      </c>
+      <c r="K45" t="n">
+        <v>145.9356662663706</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5.346274756364997</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7195859091122035</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.1517857142857143</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2095932051153349</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.3765276468112948</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1061</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>746</v>
+      </c>
+      <c r="B46" t="n">
+        <v>765</v>
+      </c>
+      <c r="C46" t="n">
+        <v>818</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.875159154546988</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.270917723918702</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.6042414306282856</v>
+      </c>
+      <c r="G46" t="n">
+        <v>72</v>
+      </c>
+      <c r="H46" t="n">
+        <v>108.6229017026146</v>
+      </c>
+      <c r="I46" t="n">
+        <v>19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>53</v>
+      </c>
+      <c r="K46" t="n">
+        <v>123.2224261656802</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.9213101906131</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8615305048466049</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3584905660377358</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3832645445461959</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9220815436650818</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1062</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>867</v>
+      </c>
+      <c r="B47" t="n">
+        <v>896</v>
+      </c>
+      <c r="C47" t="n">
+        <v>933</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.407394140373652</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.803152709745367</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.6042414306282856</v>
+      </c>
+      <c r="G47" t="n">
+        <v>66</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21.41958816692681</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>37</v>
+      </c>
+      <c r="K47" t="n">
+        <v>112.0374723403018</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9.144501832709016</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7892718013026108</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3220337682820887</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9765751211475894</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1063</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.253778340277405</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.610550340733656</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.6432279995437488</v>
+      </c>
+      <c r="G48" t="n">
+        <v>134</v>
+      </c>
+      <c r="H48" t="n">
+        <v>41.68910928877472</v>
+      </c>
+      <c r="I48" t="n">
         <v>41</v>
       </c>
-      <c r="J23" t="n">
-        <v>94</v>
-      </c>
-      <c r="K23" t="n">
-        <v>242.902307602807</v>
-      </c>
-      <c r="L23" t="n">
-        <v>14.89670169862549</v>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="J48" t="n">
+        <v>93</v>
+      </c>
+      <c r="K48" t="n">
+        <v>242.2227580113737</v>
+      </c>
+      <c r="L48" t="n">
+        <v>15.193313515277</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P23" t="n">
-        <v>0.8722811222858335</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.4361702127659575</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.2870600169963841</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.8940273626275906</v>
-      </c>
-      <c r="T23" t="inlineStr">
+      <c r="P48" t="n">
+        <v>0.8624767524153762</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.4408602150537634</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.3101003676317737</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.8812854212094585</v>
+      </c>
+      <c r="T48" t="inlineStr">
         <is>
           <t>n35</t>
         </is>
       </c>
-      <c r="U23" t="n">
-        <v>558</v>
-      </c>
-      <c r="V23" t="inlineStr">
+      <c r="U48" t="n">
+        <v>1064</v>
+      </c>
+      <c r="V48" t="inlineStr">
         <is>
           <t>processed_29792409EM2Trace.xlsx</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29792409EM2Trace/processed_29792409EM2Trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1018</v>
+        <v>1075</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1019</v>
+        <v>1076</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1020</v>
+        <v>1077</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1021</v>
+        <v>1078</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1022</v>
+        <v>1079</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1023</v>
+        <v>1080</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1024</v>
+        <v>1081</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1025</v>
+        <v>1082</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1026</v>
+        <v>1083</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1027</v>
+        <v>1084</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1028</v>
+        <v>1085</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1029</v>
+        <v>1086</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1031</v>
+        <v>1088</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1032</v>
+        <v>1089</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1033</v>
+        <v>1090</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1034</v>
+        <v>1091</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1035</v>
+        <v>1092</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1036</v>
+        <v>1093</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1037</v>
+        <v>1094</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1038</v>
+        <v>1095</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1039</v>
+        <v>1096</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1040</v>
+        <v>1097</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1041</v>
+        <v>1098</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1042</v>
+        <v>1099</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1043</v>
+        <v>1100</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>125</v>
+        <v>854</v>
       </c>
       <c r="B28" t="n">
-        <v>153</v>
+        <v>882</v>
       </c>
       <c r="C28" t="n">
-        <v>341</v>
+        <v>937</v>
       </c>
       <c r="D28" t="n">
-        <v>3.376348244083546</v>
+        <v>2.419609626863744</v>
       </c>
       <c r="E28" t="n">
-        <v>2.685096665002089</v>
+        <v>1.643063330361095</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6912515790814575</v>
+        <v>-0.7765462965026488</v>
       </c>
       <c r="G28" t="n">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="H28" t="n">
-        <v>52.81152439662273</v>
+        <v>236.6283288393472</v>
       </c>
       <c r="I28" t="n">
         <v>28</v>
       </c>
       <c r="J28" t="n">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="K28" t="n">
-        <v>222.6271847852149</v>
+        <v>171.6366500264322</v>
       </c>
       <c r="L28" t="n">
-        <v>13.28493619471602</v>
+        <v>7.900038499331251</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8142571230386967</v>
+        <v>0.5633393488638427</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.148936170212766</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5268945379590833</v>
+        <v>0.06335519167809248</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7595753960122328</v>
+        <v>0.7500598685602317</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1044</v>
+        <v>1101</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>643</v>
+        <v>125</v>
       </c>
       <c r="B29" t="n">
-        <v>669</v>
+        <v>153</v>
       </c>
       <c r="C29" t="n">
-        <v>744</v>
+        <v>341</v>
       </c>
       <c r="D29" t="n">
-        <v>1.410369304969392</v>
+        <v>3.376348244083546</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7191177258879343</v>
+        <v>2.685096665002089</v>
       </c>
       <c r="F29" t="n">
         <v>-0.6912515790814575</v>
       </c>
       <c r="G29" t="n">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c r="H29" t="n">
-        <v>38.71359964261376</v>
+        <v>52.81152439662273</v>
       </c>
       <c r="I29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J29" t="n">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="K29" t="n">
-        <v>76.0064376288274</v>
+        <v>222.6271847852149</v>
       </c>
       <c r="L29" t="n">
-        <v>5.549387940161994</v>
+        <v>13.28493619471602</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.9548860133846779</v>
+        <v>0.8142571230386967</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2927641999923384</v>
+        <v>0.5268945379590833</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9564311320731634</v>
+        <v>0.7595753960122328</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1045</v>
+        <v>1102</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>643</v>
+      </c>
+      <c r="B30" t="n">
+        <v>669</v>
+      </c>
+      <c r="C30" t="n">
         <v>744</v>
       </c>
-      <c r="B30" t="n">
-        <v>773</v>
-      </c>
-      <c r="C30" t="n">
-        <v>816</v>
-      </c>
       <c r="D30" t="n">
-        <v>1.862983435729116</v>
+        <v>1.410369304969392</v>
       </c>
       <c r="E30" t="n">
-        <v>1.171731856647659</v>
+        <v>0.7191177258879343</v>
       </c>
       <c r="F30" t="n">
         <v>-0.6912515790814575</v>
       </c>
       <c r="G30" t="n">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="H30" t="n">
-        <v>23.6235652785299</v>
+        <v>38.71359964261376</v>
       </c>
       <c r="I30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J30" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="K30" t="n">
-        <v>82.70132931412837</v>
+        <v>76.0064376288274</v>
       </c>
       <c r="L30" t="n">
-        <v>7.330291275150151</v>
+        <v>5.549387940161994</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7871845159741689</v>
+        <v>0.9548860133846779</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2236848127386638</v>
+        <v>0.2927641999923384</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8456317265335327</v>
+        <v>0.9564311320731634</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1046</v>
+        <v>1103</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>773</v>
       </c>
       <c r="C31" t="n">
-        <v>93</v>
+        <v>816</v>
       </c>
       <c r="D31" t="n">
-        <v>4.075272619956618</v>
+        <v>1.862983435729116</v>
       </c>
       <c r="E31" t="n">
-        <v>3.417904894458566</v>
+        <v>1.171731856647659</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6573677254980514</v>
+        <v>-0.6912515790814575</v>
       </c>
       <c r="G31" t="n">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H31" t="n">
-        <v>31.87484705383226</v>
+        <v>23.6235652785299</v>
       </c>
       <c r="I31" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J31" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="K31" t="n">
-        <v>225.1196231886676</v>
+        <v>82.70132931412837</v>
       </c>
       <c r="L31" t="n">
-        <v>12.23600441164614</v>
+        <v>7.330291275150151</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.9082609593338982</v>
+        <v>0.7871845159741689</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3644694549403687</v>
+        <v>0.2236848127386638</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8409309364101325</v>
+        <v>0.8456317265335327</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1047</v>
+        <v>1104</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1127</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1151</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>1183</v>
+        <v>93</v>
       </c>
       <c r="D32" t="n">
-        <v>1.836534388875715</v>
+        <v>4.075272619956618</v>
       </c>
       <c r="E32" t="n">
-        <v>1.179166663377664</v>
+        <v>3.417904894458566</v>
       </c>
       <c r="F32" t="n">
         <v>-0.6573677254980514</v>
       </c>
       <c r="G32" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H32" t="n">
-        <v>24.35459112152989</v>
+        <v>31.87484705383226</v>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J32" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K32" t="n">
-        <v>70.17111769660889</v>
+        <v>225.1196231886676</v>
       </c>
       <c r="L32" t="n">
-        <v>5.514193768136748</v>
+        <v>12.23600441164614</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6987752660385723</v>
+        <v>0.9082609593338982</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.75</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1850690939197269</v>
+        <v>0.3644694549403687</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6331751875606509</v>
+        <v>0.8409309364101325</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1048</v>
+        <v>1105</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>1151</v>
       </c>
       <c r="C33" t="n">
-        <v>113</v>
+        <v>1183</v>
       </c>
       <c r="D33" t="n">
-        <v>1.181462888552892</v>
+        <v>1.836534388875715</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6580778770520731</v>
+        <v>1.179166663377664</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5233850115008192</v>
+        <v>-0.6573677254980514</v>
       </c>
       <c r="G33" t="n">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="H33" t="n">
-        <v>24.36582596920021</v>
+        <v>24.35459112152989</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J33" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K33" t="n">
-        <v>66.59279773989664</v>
+        <v>70.17111769660889</v>
       </c>
       <c r="L33" t="n">
-        <v>5.833866182869785</v>
+        <v>5.514193768136748</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8141004799925065</v>
+        <v>0.6987752660385723</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1530612244897959</v>
+        <v>0.75</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4820266647987472</v>
+        <v>0.1850690939197269</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8179434397503483</v>
+        <v>0.6331751875606509</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1049</v>
+        <v>1106</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>286</v>
+        <v>113</v>
       </c>
       <c r="D34" t="n">
-        <v>1.212794494151614</v>
+        <v>1.181462888552892</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6728522554310551</v>
+        <v>0.6580778770520731</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5399422387205594</v>
+        <v>-0.5233850115008192</v>
       </c>
       <c r="G34" t="n">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="H34" t="n">
-        <v>37.81293582278576</v>
+        <v>24.36582596920021</v>
       </c>
       <c r="I34" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K34" t="n">
-        <v>53.08316917629566</v>
+        <v>66.59279773989664</v>
       </c>
       <c r="L34" t="n">
-        <v>5.4642792471027</v>
+        <v>5.833866182869785</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.5354475681447168</v>
+        <v>0.8141004799925065</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="R34" t="n">
-        <v>0.504583623635937</v>
+        <v>0.4820266647987472</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3197190761547912</v>
+        <v>0.8179434397503483</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1050</v>
+        <v>1107</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1134</v>
+        <v>145</v>
       </c>
       <c r="B35" t="n">
-        <v>1152</v>
+        <v>192</v>
       </c>
       <c r="C35" t="n">
-        <v>1183</v>
+        <v>286</v>
       </c>
       <c r="D35" t="n">
-        <v>1.199348484538274</v>
+        <v>1.212794494151614</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6594062458177145</v>
+        <v>0.6728522554310551</v>
       </c>
       <c r="F35" t="n">
         <v>-0.5399422387205594</v>
       </c>
       <c r="G35" t="n">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="H35" t="n">
-        <v>15.52879280229126</v>
+        <v>37.81293582278576</v>
       </c>
       <c r="I35" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J35" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="K35" t="n">
-        <v>39.58574463232486</v>
+        <v>53.08316917629566</v>
       </c>
       <c r="L35" t="n">
-        <v>5.403697877677935</v>
+        <v>5.4642792471027</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7279657241686943</v>
+        <v>0.5354475681447168</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3462449158494703</v>
+        <v>0.504583623635937</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4819086849078089</v>
+        <v>0.3197190761547912</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1051</v>
+        <v>1108</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>822</v>
+        <v>1134</v>
       </c>
       <c r="B36" t="n">
-        <v>871</v>
+        <v>1152</v>
       </c>
       <c r="C36" t="n">
-        <v>936</v>
+        <v>1183</v>
       </c>
       <c r="D36" t="n">
-        <v>3.565964500216839</v>
+        <v>1.199348484538274</v>
       </c>
       <c r="E36" t="n">
-        <v>2.891547843838065</v>
+        <v>0.6594062458177145</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.674416656378774</v>
+        <v>-0.5399422387205594</v>
       </c>
       <c r="G36" t="n">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="H36" t="n">
-        <v>143.1485710688127</v>
+        <v>15.52879280229126</v>
       </c>
       <c r="I36" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J36" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="K36" t="n">
-        <v>310.0593464698868</v>
+        <v>39.58574463232486</v>
       </c>
       <c r="L36" t="n">
-        <v>25.91742715989929</v>
+        <v>5.403697877677935</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.6461750559942849</v>
+        <v>0.7279657241686943</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1752602321313057</v>
+        <v>0.3462449158494703</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9593715999350853</v>
+        <v>0.4819086849078089</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1052</v>
+        <v>1109</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1104</v>
+        <v>822</v>
       </c>
       <c r="B37" t="n">
-        <v>1134</v>
+        <v>871</v>
       </c>
       <c r="C37" t="n">
-        <v>1183</v>
+        <v>936</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4701237855742455</v>
+        <v>3.565964500216839</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2042928708045285</v>
+        <v>2.891547843838065</v>
       </c>
       <c r="F37" t="n">
         <v>-0.674416656378774</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H37" t="n">
-        <v>27.20955537652276</v>
+        <v>143.1485710688127</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J37" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>17.73246446626652</v>
+        <v>310.0593464698868</v>
       </c>
       <c r="L37" t="n">
-        <v>3.41685930076301</v>
+        <v>25.91742715989929</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.6904658067075197</v>
+        <v>0.6461750559942849</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4821687346937081</v>
+        <v>0.1752602321313057</v>
       </c>
       <c r="S37" t="n">
-        <v>0.2940604208740583</v>
+        <v>0.9593715999350853</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1053</v>
+        <v>1110</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>134</v>
+        <v>1104</v>
       </c>
       <c r="B38" t="n">
-        <v>184</v>
+        <v>1134</v>
       </c>
       <c r="C38" t="n">
-        <v>248</v>
+        <v>1183</v>
       </c>
       <c r="D38" t="n">
-        <v>1.280515980813013</v>
+        <v>0.4701237855742455</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6532206699230412</v>
+        <v>-0.2042928708045285</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6272953108899721</v>
+        <v>-0.674416656378774</v>
       </c>
       <c r="G38" t="n">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="H38" t="n">
-        <v>56.07776768208456</v>
+        <v>27.20955537652276</v>
       </c>
       <c r="I38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J38" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K38" t="n">
-        <v>72.80480645723662</v>
+        <v>17.73246446626652</v>
       </c>
       <c r="L38" t="n">
-        <v>4.028117951818672</v>
+        <v>3.41685930076301</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7245614927422646</v>
+        <v>0.6904658067075197</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.78125</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="R38" t="n">
-        <v>0.5595464463957113</v>
+        <v>0.4821687346937081</v>
       </c>
       <c r="S38" t="n">
-        <v>0.6995871081036671</v>
+        <v>0.2940604208740583</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1054</v>
+        <v>1111</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>408</v>
+        <v>134</v>
       </c>
       <c r="B39" t="n">
-        <v>432</v>
+        <v>184</v>
       </c>
       <c r="C39" t="n">
-        <v>468</v>
+        <v>248</v>
       </c>
       <c r="D39" t="n">
-        <v>2.648394108894406</v>
+        <v>1.280515980813013</v>
       </c>
       <c r="E39" t="n">
-        <v>2.021098798004433</v>
+        <v>0.6532206699230412</v>
       </c>
       <c r="F39" t="n">
         <v>-0.6272953108899721</v>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H39" t="n">
-        <v>17.12116090788453</v>
+        <v>56.07776768208456</v>
       </c>
       <c r="I39" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J39" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="K39" t="n">
-        <v>109.2363462299926</v>
+        <v>72.80480645723662</v>
       </c>
       <c r="L39" t="n">
-        <v>8.331050930543729</v>
+        <v>4.028117951818672</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7743383120875963</v>
+        <v>0.7245614927422646</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.78125</v>
       </c>
       <c r="R39" t="n">
-        <v>0.458964177887291</v>
+        <v>0.5595464463957113</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8746274488503594</v>
+        <v>0.6995871081036671</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1055</v>
+        <v>1112</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>408</v>
+      </c>
+      <c r="B40" t="n">
+        <v>432</v>
+      </c>
+      <c r="C40" t="n">
         <v>468</v>
       </c>
-      <c r="B40" t="n">
-        <v>495</v>
-      </c>
-      <c r="C40" t="n">
-        <v>542</v>
-      </c>
       <c r="D40" t="n">
-        <v>2.890140355543554</v>
+        <v>2.648394108894406</v>
       </c>
       <c r="E40" t="n">
-        <v>2.262845044653582</v>
+        <v>2.021098798004433</v>
       </c>
       <c r="F40" t="n">
         <v>-0.6272953108899721</v>
       </c>
       <c r="G40" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H40" t="n">
-        <v>119.4020573123272</v>
+        <v>17.12116090788453</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J40" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K40" t="n">
-        <v>145.5500195714588</v>
+        <v>109.2363462299926</v>
       </c>
       <c r="L40" t="n">
-        <v>9.091511877929918</v>
+        <v>8.331050930543729</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.6895334621354005</v>
+        <v>0.7743383120875963</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.574468085106383</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1101295801669664</v>
+        <v>0.458964177887291</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9806353056867632</v>
+        <v>0.8746274488503594</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1056</v>
+        <v>1113</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>931</v>
+        <v>468</v>
       </c>
       <c r="B41" t="n">
-        <v>959</v>
+        <v>495</v>
       </c>
       <c r="C41" t="n">
-        <v>1104</v>
+        <v>542</v>
       </c>
       <c r="D41" t="n">
-        <v>2.712232543784774</v>
+        <v>2.890140355543554</v>
       </c>
       <c r="E41" t="n">
-        <v>2.177509682683353</v>
+        <v>2.262845044653582</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5347228611014209</v>
+        <v>-0.6272953108899721</v>
       </c>
       <c r="G41" t="n">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="H41" t="n">
-        <v>91.84802490365848</v>
+        <v>119.4020573123272</v>
       </c>
       <c r="I41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" t="n">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="K41" t="n">
-        <v>209.4450943053457</v>
+        <v>145.5500195714588</v>
       </c>
       <c r="L41" t="n">
-        <v>10.6892800814471</v>
+        <v>9.091511877929918</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8503345069434016</v>
+        <v>0.6895334621354005</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1931034482758621</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2803196963910812</v>
+        <v>0.1101295801669664</v>
       </c>
       <c r="S41" t="n">
-        <v>0.700653676883656</v>
+        <v>0.9806353056867632</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1057</v>
+        <v>1114</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>219</v>
+        <v>931</v>
       </c>
       <c r="B42" t="n">
-        <v>233</v>
+        <v>959</v>
       </c>
       <c r="C42" t="n">
-        <v>286</v>
+        <v>1104</v>
       </c>
       <c r="D42" t="n">
-        <v>1.899913791675682</v>
+        <v>2.712232543784774</v>
       </c>
       <c r="E42" t="n">
-        <v>1.402746638575058</v>
+        <v>2.177509682683353</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4971671531006242</v>
+        <v>-0.5347228611014209</v>
       </c>
       <c r="G42" t="n">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="H42" t="n">
-        <v>15.41705780523569</v>
+        <v>91.84802490365848</v>
       </c>
       <c r="I42" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J42" t="n">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="K42" t="n">
-        <v>80.5430147545171</v>
+        <v>209.4450943053457</v>
       </c>
       <c r="L42" t="n">
-        <v>17.89898065046359</v>
+        <v>10.6892800814471</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.9130978570267534</v>
+        <v>0.8503345069434016</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2641509433962264</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3906110407889476</v>
+        <v>0.2803196963910812</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9887687227520046</v>
+        <v>0.700653676883656</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1058</v>
+        <v>1115</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>844</v>
+        <v>219</v>
       </c>
       <c r="B43" t="n">
-        <v>882</v>
+        <v>233</v>
       </c>
       <c r="C43" t="n">
-        <v>932</v>
+        <v>286</v>
       </c>
       <c r="D43" t="n">
-        <v>2.603583064575797</v>
+        <v>1.899913791675682</v>
       </c>
       <c r="E43" t="n">
-        <v>1.841737466744652</v>
+        <v>1.402746638575058</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7618455978311447</v>
+        <v>-0.4971671531006242</v>
       </c>
       <c r="G43" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H43" t="n">
-        <v>54.2973195997007</v>
+        <v>15.41705780523569</v>
       </c>
       <c r="I43" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K43" t="n">
-        <v>176.4538552834124</v>
+        <v>80.5430147545171</v>
       </c>
       <c r="L43" t="n">
-        <v>8.282042364033096</v>
+        <v>17.89898065046359</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.6226196895524237</v>
+        <v>0.9130978570267534</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.76</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07834826937724111</v>
+        <v>0.3906110407889476</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8841564831569856</v>
+        <v>0.9887687227520046</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1059</v>
+        <v>1116</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>844</v>
+      </c>
+      <c r="B44" t="n">
+        <v>882</v>
+      </c>
+      <c r="C44" t="n">
         <v>932</v>
       </c>
-      <c r="B44" t="n">
-        <v>986</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1054</v>
-      </c>
       <c r="D44" t="n">
-        <v>3.530905669180661</v>
+        <v>2.603583064575797</v>
       </c>
       <c r="E44" t="n">
-        <v>2.769060071349517</v>
+        <v>1.841737466744652</v>
       </c>
       <c r="F44" t="n">
         <v>-0.7618455978311447</v>
       </c>
       <c r="G44" t="n">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="H44" t="n">
-        <v>48.41851219088824</v>
+        <v>54.2973195997007</v>
       </c>
       <c r="I44" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J44" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>245.5740709358614</v>
+        <v>176.4538552834124</v>
       </c>
       <c r="L44" t="n">
-        <v>11.2318714672249</v>
+        <v>8.282042364033096</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.6190097908065967</v>
+        <v>0.6226196895524237</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.76</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1000611308693526</v>
+        <v>0.07834826937724111</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8908447705505174</v>
+        <v>0.8841564831569856</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1060</v>
+        <v>1117</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>932</v>
+      </c>
+      <c r="B45" t="n">
+        <v>986</v>
+      </c>
+      <c r="C45" t="n">
         <v>1054</v>
       </c>
-      <c r="B45" t="n">
-        <v>1071</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1183</v>
-      </c>
       <c r="D45" t="n">
-        <v>1.680680900002382</v>
+        <v>3.530905669180661</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9188353021712373</v>
+        <v>2.769060071349517</v>
       </c>
       <c r="F45" t="n">
         <v>-0.7618455978311447</v>
       </c>
       <c r="G45" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H45" t="n">
-        <v>30.99733018283132</v>
+        <v>48.41851219088824</v>
       </c>
       <c r="I45" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J45" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K45" t="n">
-        <v>145.9356662663706</v>
+        <v>245.5740709358614</v>
       </c>
       <c r="L45" t="n">
-        <v>5.346274756364997</v>
+        <v>11.2318714672249</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7195859091122035</v>
+        <v>0.6190097908065967</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.1517857142857143</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2095932051153349</v>
+        <v>0.1000611308693526</v>
       </c>
       <c r="S45" t="n">
-        <v>0.3765276468112948</v>
+        <v>0.8908447705505174</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1061</v>
+        <v>1118</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>746</v>
+        <v>1054</v>
       </c>
       <c r="B46" t="n">
-        <v>765</v>
+        <v>1071</v>
       </c>
       <c r="C46" t="n">
-        <v>818</v>
+        <v>1183</v>
       </c>
       <c r="D46" t="n">
-        <v>2.875159154546988</v>
+        <v>1.680680900002382</v>
       </c>
       <c r="E46" t="n">
-        <v>2.270917723918702</v>
+        <v>0.9188353021712373</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6042414306282856</v>
+        <v>-0.7618455978311447</v>
       </c>
       <c r="G46" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H46" t="n">
-        <v>108.6229017026146</v>
+        <v>30.99733018283132</v>
       </c>
       <c r="I46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J46" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="K46" t="n">
-        <v>123.2224261656802</v>
+        <v>145.9356662663706</v>
       </c>
       <c r="L46" t="n">
-        <v>10.9213101906131</v>
+        <v>5.346274756364997</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8615305048466049</v>
+        <v>0.7195859091122035</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3584905660377358</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3832645445461959</v>
+        <v>0.2095932051153349</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9220815436650818</v>
+        <v>0.3765276468112948</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1062</v>
+        <v>1119</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>867</v>
+        <v>746</v>
       </c>
       <c r="B47" t="n">
-        <v>896</v>
+        <v>765</v>
       </c>
       <c r="C47" t="n">
-        <v>933</v>
+        <v>818</v>
       </c>
       <c r="D47" t="n">
-        <v>2.407394140373652</v>
+        <v>2.875159154546988</v>
       </c>
       <c r="E47" t="n">
-        <v>1.803152709745367</v>
+        <v>2.270917723918702</v>
       </c>
       <c r="F47" t="n">
         <v>-0.6042414306282856</v>
       </c>
       <c r="G47" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H47" t="n">
-        <v>21.41958816692681</v>
+        <v>108.6229017026146</v>
       </c>
       <c r="I47" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J47" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K47" t="n">
-        <v>112.0374723403018</v>
+        <v>123.2224261656802</v>
       </c>
       <c r="L47" t="n">
-        <v>9.144501832709016</v>
+        <v>10.9213101906131</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7892718013026108</v>
+        <v>0.8615305048466049</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3220337682820887</v>
+        <v>0.3832645445461959</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9765751211475894</v>
+        <v>0.9220815436650818</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1063</v>
+        <v>1120</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,85 +4513,171 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>867</v>
+      </c>
+      <c r="B48" t="n">
+        <v>896</v>
+      </c>
+      <c r="C48" t="n">
+        <v>933</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.407394140373652</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.803152709745367</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.6042414306282856</v>
+      </c>
+      <c r="G48" t="n">
+        <v>66</v>
+      </c>
+      <c r="H48" t="n">
+        <v>21.41958816692681</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29</v>
+      </c>
+      <c r="J48" t="n">
+        <v>37</v>
+      </c>
+      <c r="K48" t="n">
+        <v>112.0374723403018</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9.144501832709016</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7892718013026108</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.3220337682820887</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9765751211475894</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1121</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>1049</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>1090</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>1183</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>3.253778340277405</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>2.610550340733656</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>-0.6432279995437488</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G49" t="n">
         <v>134</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>41.68910928877472</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>41</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J49" t="n">
         <v>93</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>242.2227580113737</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>15.193313515277</v>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P48" t="n">
+      <c r="P49" t="n">
         <v>0.8624767524153762</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q49" t="n">
         <v>0.4408602150537634</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R49" t="n">
         <v>0.3101003676317737</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S49" t="n">
         <v>0.8812854212094585</v>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>n35</t>
         </is>
       </c>
-      <c r="U48" t="n">
-        <v>1064</v>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
+      <c r="U49" t="n">
+        <v>1122</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_29792409EM2Trace.xlsx</t>
         </is>
